--- a/db_initializer/facilities/tl_health_facilities_edited.xlsx
+++ b/db_initializer/facilities/tl_health_facilities_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2399de6ce21ea9a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericksoncruz/Documents/RIMES/superset/db_initializer/facilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9CB7B245-50CE-40CE-A6F0-C847AD82A1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBBBC1F8-7C95-47A4-A2DD-B79FD8D1F0EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0BE0E1-0BBF-6847-B349-022E07910FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TL Health Facilities" sheetId="22" r:id="rId1"/>
@@ -23330,7 +23330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -24045,15 +24045,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -24195,13 +24186,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -24225,19 +24222,13 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -24563,7 +24554,7 @@
       <selection activeCell="B25" sqref="B25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="8.796875" style="8"/>
@@ -24571,94 +24562,94 @@
     <col min="7" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+    <row r="1" spans="1:14" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="290" t="s">
         <v>1358</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="286" t="s">
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="283" t="s">
         <v>1359</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="284" t="s">
         <v>1360</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
       <c r="F2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="286"/>
-      <c r="B3" s="287" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="283"/>
+      <c r="B3" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
       <c r="F3" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="286"/>
-      <c r="B4" s="287" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="283"/>
+      <c r="B4" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C4" s="287"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
       <c r="F4" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="286"/>
-      <c r="B5" s="287" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="283"/>
+      <c r="B5" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
       <c r="F5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="286"/>
-      <c r="B6" s="287" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="283"/>
+      <c r="B6" s="284" t="s">
         <v>1357</v>
       </c>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
       <c r="F6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="286" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="287" t="s">
+      <c r="B7" s="284" t="s">
         <v>730</v>
       </c>
-      <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="286"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="283"/>
       <c r="B8" s="2" t="s">
         <v>1360</v>
       </c>
@@ -24668,839 +24659,870 @@
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="293" t="s">
+      <c r="K8" s="292" t="s">
         <v>741</v>
       </c>
-      <c r="L8" s="293"/>
-      <c r="M8" s="293"/>
-      <c r="N8" s="293"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="286"/>
-      <c r="B9" s="287" t="s">
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="292"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="283"/>
+      <c r="B9" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C9" s="287"/>
-      <c r="D9" s="287"/>
-      <c r="E9" s="287"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="284"/>
       <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="K9" s="294" t="s">
+      <c r="K9" s="293" t="s">
         <v>732</v>
       </c>
-      <c r="L9" s="294"/>
-      <c r="M9" s="294"/>
-      <c r="N9" s="294"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="286"/>
-      <c r="B10" s="287" t="s">
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="283"/>
+      <c r="B10" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
       <c r="F10" s="6">
         <v>22</v>
       </c>
-      <c r="K10" s="295" t="s">
+      <c r="K10" s="294" t="s">
         <v>730</v>
       </c>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="286"/>
-      <c r="B11" s="287" t="s">
+      <c r="L10" s="294"/>
+      <c r="M10" s="294"/>
+      <c r="N10" s="294"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="283"/>
+      <c r="B11" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="287"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="284"/>
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="K11" s="296" t="s">
+      <c r="K11" s="295" t="s">
         <v>1360</v>
       </c>
-      <c r="L11" s="296"/>
-      <c r="M11" s="296"/>
-      <c r="N11" s="296"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="286" t="s">
+      <c r="L11" s="295"/>
+      <c r="M11" s="295"/>
+      <c r="N11" s="295"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="283" t="s">
         <v>1361</v>
       </c>
-      <c r="B12" s="287" t="s">
+      <c r="B12" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="284"/>
       <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="297" t="s">
+      <c r="K12" s="296" t="s">
         <v>721</v>
       </c>
-      <c r="L12" s="297"/>
-      <c r="M12" s="297"/>
-      <c r="N12" s="297"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="286"/>
-      <c r="B13" s="287" t="s">
+      <c r="L12" s="296"/>
+      <c r="M12" s="296"/>
+      <c r="N12" s="296"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="283"/>
+      <c r="B13" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
+      <c r="C13" s="284"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="284"/>
       <c r="F13" s="6">
         <v>6</v>
       </c>
-      <c r="K13" s="288" t="s">
+      <c r="K13" s="298" t="s">
         <v>723</v>
       </c>
-      <c r="L13" s="288"/>
-      <c r="M13" s="288"/>
-      <c r="N13" s="288"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="286" t="s">
+      <c r="L13" s="298"/>
+      <c r="M13" s="298"/>
+      <c r="N13" s="298"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="283" t="s">
         <v>1362</v>
       </c>
-      <c r="B14" s="287" t="s">
+      <c r="B14" s="284" t="s">
         <v>732</v>
       </c>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="289" t="s">
+      <c r="K14" s="299" t="s">
         <v>749</v>
       </c>
-      <c r="L14" s="289"/>
-      <c r="M14" s="289"/>
-      <c r="N14" s="289"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="286"/>
-      <c r="B15" s="287" t="s">
+      <c r="L14" s="299"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="299"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="283"/>
+      <c r="B15" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="284"/>
+      <c r="E15" s="284"/>
       <c r="F15" s="6">
         <v>9</v>
       </c>
-      <c r="K15" s="290" t="s">
+      <c r="K15" s="297" t="s">
         <v>1355</v>
       </c>
-      <c r="L15" s="290"/>
-      <c r="M15" s="290"/>
-      <c r="N15" s="290"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="286"/>
-      <c r="B16" s="287" t="s">
+      <c r="L15" s="297"/>
+      <c r="M15" s="297"/>
+      <c r="N15" s="297"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="283"/>
+      <c r="B16" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
       <c r="F16" s="6">
         <v>28</v>
       </c>
-      <c r="K16" s="301" t="s">
+      <c r="K16" s="288" t="s">
         <v>1356</v>
       </c>
-      <c r="L16" s="301"/>
-      <c r="M16" s="301"/>
-      <c r="N16" s="301"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="286"/>
-      <c r="B17" s="287" t="s">
+      <c r="L16" s="288"/>
+      <c r="M16" s="288"/>
+      <c r="N16" s="288"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="283"/>
+      <c r="B17" s="284" t="s">
         <v>1355</v>
       </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="287"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="284"/>
       <c r="F17" s="6">
         <v>3</v>
       </c>
-      <c r="K17" s="302" t="s">
+      <c r="K17" s="289" t="s">
         <v>1357</v>
       </c>
-      <c r="L17" s="302"/>
-      <c r="M17" s="302"/>
-      <c r="N17" s="302"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="286"/>
-      <c r="B18" s="287" t="s">
+      <c r="L17" s="289"/>
+      <c r="M17" s="289"/>
+      <c r="N17" s="289"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="283"/>
+      <c r="B18" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C18" s="287"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="287"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="284"/>
       <c r="F18" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="286"/>
-      <c r="B19" s="287" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="283"/>
+      <c r="B19" s="284" t="s">
         <v>1357</v>
       </c>
-      <c r="C19" s="287"/>
-      <c r="D19" s="287"/>
-      <c r="E19" s="287"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
       <c r="F19" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="298" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="285" t="s">
         <v>1363</v>
       </c>
-      <c r="B20" s="287" t="s">
+      <c r="B20" s="284" t="s">
         <v>730</v>
       </c>
-      <c r="C20" s="287"/>
-      <c r="D20" s="287"/>
-      <c r="E20" s="287"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
       <c r="F20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="299"/>
-      <c r="B21" s="287" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="286"/>
+      <c r="B21" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C21" s="287"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="284"/>
       <c r="F21" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="299"/>
-      <c r="B22" s="287" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="286"/>
+      <c r="B22" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C22" s="287"/>
-      <c r="D22" s="287"/>
-      <c r="E22" s="287"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="284"/>
       <c r="F22" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="299"/>
-      <c r="B23" s="287" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="286"/>
+      <c r="B23" s="284" t="s">
         <v>1355</v>
       </c>
-      <c r="C23" s="287"/>
-      <c r="D23" s="287"/>
-      <c r="E23" s="287"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="284"/>
       <c r="F23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="300"/>
-      <c r="B24" s="287" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="287"/>
+      <c r="B24" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C24" s="287"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="284"/>
       <c r="F24" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="298" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="285" t="s">
         <v>1364</v>
       </c>
-      <c r="B25" s="287" t="s">
+      <c r="B25" s="284" t="s">
         <v>730</v>
       </c>
-      <c r="C25" s="287"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="287"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="284"/>
       <c r="F25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="299"/>
-      <c r="B26" s="287" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="286"/>
+      <c r="B26" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C26" s="287"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="287"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="284"/>
       <c r="F26" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="299"/>
-      <c r="B27" s="287" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="286"/>
+      <c r="B27" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C27" s="287"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="287"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="284"/>
+      <c r="E27" s="284"/>
       <c r="F27" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="300"/>
-      <c r="B28" s="287" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="287"/>
+      <c r="B28" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C28" s="287"/>
-      <c r="D28" s="287"/>
-      <c r="E28" s="287"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="284"/>
+      <c r="E28" s="284"/>
       <c r="F28" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="286" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="283" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="287" t="s">
+      <c r="B29" s="284" t="s">
         <v>741</v>
       </c>
-      <c r="C29" s="287"/>
-      <c r="D29" s="287"/>
-      <c r="E29" s="287"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="284"/>
       <c r="F29" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="286"/>
-      <c r="B30" s="287" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="283"/>
+      <c r="B30" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C30" s="287"/>
-      <c r="D30" s="287"/>
-      <c r="E30" s="287"/>
+      <c r="C30" s="284"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="284"/>
       <c r="F30" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="286"/>
-      <c r="B31" s="287" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="283"/>
+      <c r="B31" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C31" s="287"/>
-      <c r="D31" s="287"/>
-      <c r="E31" s="287"/>
+      <c r="C31" s="284"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="284"/>
       <c r="F31" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="286"/>
-      <c r="B32" s="287" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="283"/>
+      <c r="B32" s="284" t="s">
         <v>749</v>
       </c>
-      <c r="C32" s="287"/>
-      <c r="D32" s="287"/>
-      <c r="E32" s="287"/>
+      <c r="C32" s="284"/>
+      <c r="D32" s="284"/>
+      <c r="E32" s="284"/>
       <c r="F32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="286"/>
-      <c r="B33" s="287" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="283"/>
+      <c r="B33" s="284" t="s">
         <v>1355</v>
       </c>
-      <c r="C33" s="287"/>
-      <c r="D33" s="287"/>
-      <c r="E33" s="287"/>
+      <c r="C33" s="284"/>
+      <c r="D33" s="284"/>
+      <c r="E33" s="284"/>
       <c r="F33" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="286"/>
-      <c r="B34" s="287" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="283"/>
+      <c r="B34" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C34" s="287"/>
-      <c r="D34" s="287"/>
-      <c r="E34" s="287"/>
+      <c r="C34" s="284"/>
+      <c r="D34" s="284"/>
+      <c r="E34" s="284"/>
       <c r="F34" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="286"/>
-      <c r="B35" s="287" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="283"/>
+      <c r="B35" s="284" t="s">
         <v>1357</v>
       </c>
-      <c r="C35" s="287"/>
-      <c r="D35" s="287"/>
-      <c r="E35" s="287"/>
+      <c r="C35" s="284"/>
+      <c r="D35" s="284"/>
+      <c r="E35" s="284"/>
       <c r="F35" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="286" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="283" t="s">
         <v>1365</v>
       </c>
-      <c r="B36" s="287" t="s">
+      <c r="B36" s="284" t="s">
         <v>1360</v>
       </c>
-      <c r="C36" s="287"/>
-      <c r="D36" s="287"/>
-      <c r="E36" s="287"/>
+      <c r="C36" s="284"/>
+      <c r="D36" s="284"/>
+      <c r="E36" s="284"/>
       <c r="F36" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="286"/>
-      <c r="B37" s="287" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="283"/>
+      <c r="B37" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C37" s="287"/>
-      <c r="D37" s="287"/>
-      <c r="E37" s="287"/>
+      <c r="C37" s="284"/>
+      <c r="D37" s="284"/>
+      <c r="E37" s="284"/>
       <c r="F37" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="286"/>
-      <c r="B38" s="287" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="283"/>
+      <c r="B38" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C38" s="287"/>
-      <c r="D38" s="287"/>
-      <c r="E38" s="287"/>
+      <c r="C38" s="284"/>
+      <c r="D38" s="284"/>
+      <c r="E38" s="284"/>
       <c r="F38" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="286"/>
-      <c r="B39" s="287" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="283"/>
+      <c r="B39" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="287"/>
+      <c r="C39" s="284"/>
+      <c r="D39" s="284"/>
+      <c r="E39" s="284"/>
       <c r="F39" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="286" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="287" t="s">
+      <c r="B40" s="284" t="s">
         <v>1360</v>
       </c>
-      <c r="C40" s="287"/>
-      <c r="D40" s="287"/>
-      <c r="E40" s="287"/>
+      <c r="C40" s="284"/>
+      <c r="D40" s="284"/>
+      <c r="E40" s="284"/>
       <c r="F40" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="286"/>
-      <c r="B41" s="287" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="283"/>
+      <c r="B41" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C41" s="287"/>
-      <c r="D41" s="287"/>
-      <c r="E41" s="287"/>
+      <c r="C41" s="284"/>
+      <c r="D41" s="284"/>
+      <c r="E41" s="284"/>
       <c r="F41" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="286"/>
-      <c r="B42" s="287" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="283"/>
+      <c r="B42" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C42" s="287"/>
-      <c r="D42" s="287"/>
-      <c r="E42" s="287"/>
+      <c r="C42" s="284"/>
+      <c r="D42" s="284"/>
+      <c r="E42" s="284"/>
       <c r="F42" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="286"/>
-      <c r="B43" s="287" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="283"/>
+      <c r="B43" s="284" t="s">
         <v>749</v>
       </c>
-      <c r="C43" s="287"/>
-      <c r="D43" s="287"/>
-      <c r="E43" s="287"/>
+      <c r="C43" s="284"/>
+      <c r="D43" s="284"/>
+      <c r="E43" s="284"/>
       <c r="F43" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="286"/>
-      <c r="B44" s="287" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="283"/>
+      <c r="B44" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C44" s="287"/>
-      <c r="D44" s="287"/>
-      <c r="E44" s="287"/>
+      <c r="C44" s="284"/>
+      <c r="D44" s="284"/>
+      <c r="E44" s="284"/>
       <c r="F44" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="286" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="283" t="s">
         <v>1366</v>
       </c>
-      <c r="B45" s="287" t="s">
+      <c r="B45" s="284" t="s">
         <v>1360</v>
       </c>
-      <c r="C45" s="287"/>
-      <c r="D45" s="287"/>
-      <c r="E45" s="287"/>
+      <c r="C45" s="284"/>
+      <c r="D45" s="284"/>
+      <c r="E45" s="284"/>
       <c r="F45" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="286"/>
-      <c r="B46" s="287" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="283"/>
+      <c r="B46" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C46" s="287"/>
-      <c r="D46" s="287"/>
-      <c r="E46" s="287"/>
+      <c r="C46" s="284"/>
+      <c r="D46" s="284"/>
+      <c r="E46" s="284"/>
       <c r="F46" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="286"/>
-      <c r="B47" s="287" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="283"/>
+      <c r="B47" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C47" s="287"/>
-      <c r="D47" s="287"/>
-      <c r="E47" s="287"/>
+      <c r="C47" s="284"/>
+      <c r="D47" s="284"/>
+      <c r="E47" s="284"/>
       <c r="F47" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="286"/>
-      <c r="B48" s="287" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="283"/>
+      <c r="B48" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C48" s="287"/>
-      <c r="D48" s="287"/>
-      <c r="E48" s="287"/>
+      <c r="C48" s="284"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="284"/>
       <c r="F48" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="286"/>
-      <c r="B49" s="287" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="283"/>
+      <c r="B49" s="284" t="s">
         <v>1357</v>
       </c>
-      <c r="C49" s="287"/>
-      <c r="D49" s="287"/>
-      <c r="E49" s="287"/>
+      <c r="C49" s="284"/>
+      <c r="D49" s="284"/>
+      <c r="E49" s="284"/>
       <c r="F49" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="286" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="283" t="s">
         <v>1367</v>
       </c>
-      <c r="B50" s="287" t="s">
+      <c r="B50" s="284" t="s">
         <v>1360</v>
       </c>
-      <c r="C50" s="287"/>
-      <c r="D50" s="287"/>
-      <c r="E50" s="287"/>
+      <c r="C50" s="284"/>
+      <c r="D50" s="284"/>
+      <c r="E50" s="284"/>
       <c r="F50" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="286"/>
-      <c r="B51" s="287" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="283"/>
+      <c r="B51" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C51" s="287"/>
-      <c r="D51" s="287"/>
-      <c r="E51" s="287"/>
+      <c r="C51" s="284"/>
+      <c r="D51" s="284"/>
+      <c r="E51" s="284"/>
       <c r="F51" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="286"/>
-      <c r="B52" s="287" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="283"/>
+      <c r="B52" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C52" s="287"/>
-      <c r="D52" s="287"/>
-      <c r="E52" s="287"/>
+      <c r="C52" s="284"/>
+      <c r="D52" s="284"/>
+      <c r="E52" s="284"/>
       <c r="F52" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="286"/>
-      <c r="B53" s="287" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="283"/>
+      <c r="B53" s="284" t="s">
         <v>1355</v>
       </c>
-      <c r="C53" s="287"/>
-      <c r="D53" s="287"/>
-      <c r="E53" s="287"/>
+      <c r="C53" s="284"/>
+      <c r="D53" s="284"/>
+      <c r="E53" s="284"/>
       <c r="F53" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="286"/>
-      <c r="B54" s="287" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="283"/>
+      <c r="B54" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C54" s="287"/>
-      <c r="D54" s="287"/>
-      <c r="E54" s="287"/>
+      <c r="C54" s="284"/>
+      <c r="D54" s="284"/>
+      <c r="E54" s="284"/>
       <c r="F54" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="286" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="283" t="s">
         <v>1368</v>
       </c>
-      <c r="B55" s="287" t="s">
+      <c r="B55" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C55" s="287"/>
-      <c r="D55" s="287"/>
-      <c r="E55" s="287"/>
+      <c r="C55" s="284"/>
+      <c r="D55" s="284"/>
+      <c r="E55" s="284"/>
       <c r="F55" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="286"/>
-      <c r="B56" s="287" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="283"/>
+      <c r="B56" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C56" s="287"/>
-      <c r="D56" s="287"/>
-      <c r="E56" s="287"/>
+      <c r="C56" s="284"/>
+      <c r="D56" s="284"/>
+      <c r="E56" s="284"/>
       <c r="F56" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="286"/>
-      <c r="B57" s="287" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="283"/>
+      <c r="B57" s="284" t="s">
         <v>749</v>
       </c>
-      <c r="C57" s="287"/>
-      <c r="D57" s="287"/>
-      <c r="E57" s="287"/>
+      <c r="C57" s="284"/>
+      <c r="D57" s="284"/>
+      <c r="E57" s="284"/>
       <c r="F57" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="286"/>
-      <c r="B58" s="287" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="283"/>
+      <c r="B58" s="284" t="s">
         <v>1356</v>
       </c>
-      <c r="C58" s="287"/>
-      <c r="D58" s="287"/>
-      <c r="E58" s="287"/>
+      <c r="C58" s="284"/>
+      <c r="D58" s="284"/>
+      <c r="E58" s="284"/>
       <c r="F58" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="286"/>
-      <c r="B59" s="287" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="283"/>
+      <c r="B59" s="284" t="s">
         <v>1357</v>
       </c>
-      <c r="C59" s="287"/>
-      <c r="D59" s="287"/>
-      <c r="E59" s="287"/>
+      <c r="C59" s="284"/>
+      <c r="D59" s="284"/>
+      <c r="E59" s="284"/>
       <c r="F59" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="286" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="283" t="s">
         <v>1369</v>
       </c>
-      <c r="B60" s="287" t="s">
+      <c r="B60" s="284" t="s">
         <v>732</v>
       </c>
-      <c r="C60" s="287"/>
-      <c r="D60" s="287"/>
-      <c r="E60" s="287"/>
+      <c r="C60" s="284"/>
+      <c r="D60" s="284"/>
+      <c r="E60" s="284"/>
       <c r="F60" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="286"/>
-      <c r="B61" s="287" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="283"/>
+      <c r="B61" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C61" s="287"/>
-      <c r="D61" s="287"/>
-      <c r="E61" s="287"/>
+      <c r="C61" s="284"/>
+      <c r="D61" s="284"/>
+      <c r="E61" s="284"/>
       <c r="F61" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="286"/>
-      <c r="B62" s="287" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="283"/>
+      <c r="B62" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C62" s="287"/>
-      <c r="D62" s="287"/>
-      <c r="E62" s="287"/>
+      <c r="C62" s="284"/>
+      <c r="D62" s="284"/>
+      <c r="E62" s="284"/>
       <c r="F62" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="286"/>
-      <c r="B63" s="287" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="283"/>
+      <c r="B63" s="284" t="s">
         <v>1357</v>
       </c>
-      <c r="C63" s="287"/>
-      <c r="D63" s="287"/>
-      <c r="E63" s="287"/>
+      <c r="C63" s="284"/>
+      <c r="D63" s="284"/>
+      <c r="E63" s="284"/>
       <c r="F63" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="286" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="283" t="s">
         <v>1370</v>
       </c>
-      <c r="B64" s="287" t="s">
+      <c r="B64" s="284" t="s">
         <v>1360</v>
       </c>
-      <c r="C64" s="287"/>
-      <c r="D64" s="287"/>
-      <c r="E64" s="287"/>
+      <c r="C64" s="284"/>
+      <c r="D64" s="284"/>
+      <c r="E64" s="284"/>
       <c r="F64" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="286"/>
-      <c r="B65" s="287" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="283"/>
+      <c r="B65" s="284" t="s">
         <v>721</v>
       </c>
-      <c r="C65" s="287"/>
-      <c r="D65" s="287"/>
-      <c r="E65" s="287"/>
+      <c r="C65" s="284"/>
+      <c r="D65" s="284"/>
+      <c r="E65" s="284"/>
       <c r="F65" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="286"/>
-      <c r="B66" s="287" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="283"/>
+      <c r="B66" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C66" s="287"/>
-      <c r="D66" s="287"/>
-      <c r="E66" s="287"/>
+      <c r="C66" s="284"/>
+      <c r="D66" s="284"/>
+      <c r="E66" s="284"/>
       <c r="F66" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="286"/>
-      <c r="B67" s="287" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="283"/>
+      <c r="B67" s="284" t="s">
         <v>1355</v>
       </c>
-      <c r="C67" s="287"/>
-      <c r="D67" s="287"/>
-      <c r="E67" s="287"/>
+      <c r="C67" s="284"/>
+      <c r="D67" s="284"/>
+      <c r="E67" s="284"/>
       <c r="F67" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="286"/>
-      <c r="B68" s="287" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="283"/>
+      <c r="B68" s="284" t="s">
         <v>1357</v>
       </c>
-      <c r="C68" s="287"/>
-      <c r="D68" s="287"/>
-      <c r="E68" s="287"/>
+      <c r="C68" s="284"/>
+      <c r="D68" s="284"/>
+      <c r="E68" s="284"/>
       <c r="F68" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="17"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="17"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B14:E14"/>
@@ -25517,38 +25539,11 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B9:E9"/>
@@ -25559,22 +25554,18 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25584,32 +25575,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="77" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="77" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" customWidth="1"/>
     <col min="2" max="2" width="47.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.59765625" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="4" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="15" style="19" customWidth="1"/>
-    <col min="11" max="11" width="33.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" style="19" customWidth="1"/>
     <col min="13" max="13" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="50.296875" customWidth="1"/>
-    <col min="17" max="17" width="38.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="50.19921875" customWidth="1"/>
+    <col min="17" max="17" width="38.59765625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="40.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -25665,7 +25656,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -25721,7 +25712,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -25777,7 +25768,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -25833,7 +25824,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -25889,7 +25880,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -25945,7 +25936,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -26001,7 +25992,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="47">
         <v>7</v>
       </c>
@@ -26057,7 +26048,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47">
         <v>8</v>
       </c>
@@ -26113,7 +26104,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -26169,7 +26160,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -26221,7 +26212,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -26277,7 +26268,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -26333,7 +26324,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -26389,7 +26380,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -26445,7 +26436,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -26501,7 +26492,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -26557,7 +26548,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
         <v>17</v>
       </c>
@@ -26613,7 +26604,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
         <v>18</v>
       </c>
@@ -26669,7 +26660,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
         <v>19</v>
       </c>
@@ -26725,7 +26716,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="47">
         <v>20</v>
       </c>
@@ -26781,7 +26772,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47">
         <v>21</v>
       </c>
@@ -26837,7 +26828,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47">
         <v>22</v>
       </c>
@@ -26893,7 +26884,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47">
         <v>23</v>
       </c>
@@ -26949,7 +26940,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47">
         <v>24</v>
       </c>
@@ -27005,7 +26996,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="58">
         <v>25</v>
       </c>
@@ -27061,7 +27052,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="182">
         <v>26</v>
       </c>
@@ -27107,7 +27098,7 @@
       <c r="O27" s="185">
         <v>15</v>
       </c>
-      <c r="P27" s="254" t="s">
+      <c r="P27" s="251" t="s">
         <v>1437</v>
       </c>
       <c r="Q27" s="186" t="s">
@@ -27131,7 +27122,7 @@
       <selection activeCell="K6" sqref="K6:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="47.59765625" style="21" bestFit="1" customWidth="1"/>
@@ -27139,21 +27130,21 @@
     <col min="4" max="4" width="24.19921875" style="21" customWidth="1"/>
     <col min="5" max="5" width="21.59765625" style="21" customWidth="1"/>
     <col min="6" max="6" width="21.59765625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="5" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="13.3984375" customWidth="1"/>
-    <col min="11" max="11" width="26.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.19921875" customWidth="1"/>
     <col min="13" max="13" width="16.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="56.296875" customWidth="1"/>
+    <col min="14" max="14" width="25.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="56.19921875" customWidth="1"/>
     <col min="17" max="17" width="38.3984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -27209,7 +27200,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -27265,7 +27256,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -27321,7 +27312,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -27377,7 +27368,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>5</v>
       </c>
@@ -27387,7 +27378,7 @@
       <c r="C5" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="283" t="s">
+      <c r="D5" s="280" t="s">
         <v>1494</v>
       </c>
       <c r="E5" s="88" t="s">
@@ -27433,7 +27424,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="40">
         <v>6</v>
       </c>
@@ -27489,7 +27480,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="40">
         <v>7</v>
       </c>
@@ -27545,7 +27536,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>8</v>
       </c>
@@ -27601,7 +27592,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="40">
         <v>9</v>
       </c>
@@ -27657,7 +27648,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40">
         <v>10</v>
       </c>
@@ -27713,7 +27704,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40">
         <v>11</v>
       </c>
@@ -27769,7 +27760,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="40">
         <v>12</v>
       </c>
@@ -27825,7 +27816,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40">
         <v>13</v>
       </c>
@@ -27881,7 +27872,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40">
         <v>14</v>
       </c>
@@ -27937,7 +27928,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
         <v>15</v>
       </c>
@@ -27993,7 +27984,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40">
         <v>16</v>
       </c>
@@ -28049,7 +28040,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40">
         <v>17</v>
       </c>
@@ -28105,7 +28096,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40">
         <v>18</v>
       </c>
@@ -28157,7 +28148,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40">
         <v>19</v>
       </c>
@@ -28213,7 +28204,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40">
         <v>20</v>
       </c>
@@ -28269,7 +28260,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="40">
         <v>21</v>
       </c>
@@ -28325,7 +28316,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40">
         <v>22</v>
       </c>
@@ -28381,7 +28372,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="40">
         <v>23</v>
       </c>
@@ -28437,7 +28428,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40">
         <v>24</v>
       </c>
@@ -28493,7 +28484,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
         <v>25</v>
       </c>
@@ -28549,7 +28540,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40">
         <v>26</v>
       </c>
@@ -28605,7 +28596,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40">
         <v>27</v>
       </c>
@@ -28661,7 +28652,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="40">
         <v>28</v>
       </c>
@@ -28717,7 +28708,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="52">
         <v>29</v>
       </c>
@@ -28763,7 +28754,7 @@
       <c r="O29" s="56">
         <v>1</v>
       </c>
-      <c r="P29" s="253" t="s">
+      <c r="P29" s="250" t="s">
         <v>748</v>
       </c>
       <c r="Q29" s="58" t="s">
@@ -28773,7 +28764,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="52">
         <v>30</v>
       </c>
@@ -28819,17 +28810,17 @@
       <c r="O30" s="56">
         <v>1</v>
       </c>
-      <c r="P30" s="245" t="s">
+      <c r="P30" s="242" t="s">
         <v>1443</v>
       </c>
-      <c r="Q30" s="246" t="s">
+      <c r="Q30" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R30" s="246" t="s">
+      <c r="R30" s="243" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="52">
         <v>31</v>
       </c>
@@ -28875,17 +28866,17 @@
       <c r="O31" s="56">
         <v>2</v>
       </c>
-      <c r="P31" s="245" t="s">
+      <c r="P31" s="242" t="s">
         <v>1443</v>
       </c>
-      <c r="Q31" s="246" t="s">
+      <c r="Q31" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R31" s="246" t="s">
+      <c r="R31" s="243" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="190">
         <v>32</v>
       </c>
@@ -28955,29 +28946,29 @@
       <selection activeCell="K7" sqref="K7:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="16" customWidth="1"/>
     <col min="2" max="2" width="46.19921875" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="25" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" style="25" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="25" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="25" customWidth="1"/>
     <col min="9" max="9" width="16" style="9" customWidth="1"/>
     <col min="10" max="10" width="13.796875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="30.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.796875" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.296875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="49.19921875" style="8" customWidth="1"/>
     <col min="17" max="17" width="38.3984375" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="15" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -29033,14 +29024,14 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="248" t="s">
         <v>1461</v>
       </c>
-      <c r="C2" s="284" t="s">
+      <c r="C2" s="281" t="s">
         <v>1367</v>
       </c>
       <c r="D2" s="147" t="s">
@@ -29089,14 +29080,14 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
         <v>2</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>1084</v>
       </c>
-      <c r="C3" s="283" t="s">
+      <c r="C3" s="280" t="s">
         <v>1367</v>
       </c>
       <c r="D3" s="88" t="s">
@@ -29145,17 +29136,17 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>3</v>
       </c>
       <c r="B4" s="88" t="s">
         <v>1085</v>
       </c>
-      <c r="C4" s="283" t="s">
+      <c r="C4" s="280" t="s">
         <v>1367</v>
       </c>
-      <c r="D4" s="283" t="s">
+      <c r="D4" s="280" t="s">
         <v>1367</v>
       </c>
       <c r="E4" s="88" t="s">
@@ -29201,14 +29192,14 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>4</v>
       </c>
       <c r="B5" s="88" t="s">
         <v>1086</v>
       </c>
-      <c r="C5" s="283" t="s">
+      <c r="C5" s="280" t="s">
         <v>1367</v>
       </c>
       <c r="D5" s="88" t="s">
@@ -29257,14 +29248,14 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>5</v>
       </c>
       <c r="B6" s="88" t="s">
         <v>1087</v>
       </c>
-      <c r="C6" s="283" t="s">
+      <c r="C6" s="280" t="s">
         <v>1367</v>
       </c>
       <c r="D6" s="88" t="s">
@@ -29313,14 +29304,14 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="40">
         <v>6</v>
       </c>
       <c r="B7" s="162" t="s">
         <v>1056</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D7" s="162" t="s">
@@ -29369,14 +29360,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>7</v>
       </c>
       <c r="B8" s="162" t="s">
         <v>1057</v>
       </c>
-      <c r="C8" s="285" t="s">
+      <c r="C8" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D8" s="162" t="s">
@@ -29425,14 +29416,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="40">
         <v>8</v>
       </c>
       <c r="B9" s="162" t="s">
         <v>1058</v>
       </c>
-      <c r="C9" s="285" t="s">
+      <c r="C9" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D9" s="162" t="s">
@@ -29481,14 +29472,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40">
         <v>9</v>
       </c>
       <c r="B10" s="162" t="s">
         <v>1059</v>
       </c>
-      <c r="C10" s="285" t="s">
+      <c r="C10" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D10" s="162" t="s">
@@ -29537,14 +29528,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40">
         <v>10</v>
       </c>
       <c r="B11" s="162" t="s">
         <v>1060</v>
       </c>
-      <c r="C11" s="285" t="s">
+      <c r="C11" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D11" s="162" t="s">
@@ -29593,17 +29584,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="40">
         <v>11</v>
       </c>
       <c r="B12" s="162" t="s">
         <v>1061</v>
       </c>
-      <c r="C12" s="285" t="s">
+      <c r="C12" s="282" t="s">
         <v>1367</v>
       </c>
-      <c r="D12" s="285" t="s">
+      <c r="D12" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="E12" s="162" t="s">
@@ -29649,17 +29640,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40">
         <v>12</v>
       </c>
       <c r="B13" s="162" t="s">
         <v>1062</v>
       </c>
-      <c r="C13" s="285" t="s">
+      <c r="C13" s="282" t="s">
         <v>1367</v>
       </c>
-      <c r="D13" s="285" t="s">
+      <c r="D13" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="E13" s="162" t="s">
@@ -29705,17 +29696,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40">
         <v>13</v>
       </c>
       <c r="B14" s="162" t="s">
         <v>1063</v>
       </c>
-      <c r="C14" s="285" t="s">
+      <c r="C14" s="282" t="s">
         <v>1367</v>
       </c>
-      <c r="D14" s="285" t="s">
+      <c r="D14" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="E14" s="162" t="s">
@@ -29761,17 +29752,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
         <v>14</v>
       </c>
       <c r="B15" s="162" t="s">
         <v>1064</v>
       </c>
-      <c r="C15" s="285" t="s">
+      <c r="C15" s="282" t="s">
         <v>1367</v>
       </c>
-      <c r="D15" s="285" t="s">
+      <c r="D15" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="E15" s="162" t="s">
@@ -29817,17 +29808,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40">
         <v>15</v>
       </c>
       <c r="B16" s="162" t="s">
         <v>1065</v>
       </c>
-      <c r="C16" s="285" t="s">
+      <c r="C16" s="282" t="s">
         <v>1367</v>
       </c>
-      <c r="D16" s="285" t="s">
+      <c r="D16" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="E16" s="162" t="s">
@@ -29873,17 +29864,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40">
         <v>16</v>
       </c>
       <c r="B17" s="162" t="s">
         <v>1066</v>
       </c>
-      <c r="C17" s="285" t="s">
+      <c r="C17" s="282" t="s">
         <v>1367</v>
       </c>
-      <c r="D17" s="285" t="s">
+      <c r="D17" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="E17" s="162" t="s">
@@ -29929,17 +29920,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40">
         <v>17</v>
       </c>
       <c r="B18" s="162" t="s">
         <v>1067</v>
       </c>
-      <c r="C18" s="285" t="s">
+      <c r="C18" s="282" t="s">
         <v>1367</v>
       </c>
-      <c r="D18" s="285" t="s">
+      <c r="D18" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="E18" s="162" t="s">
@@ -29985,14 +29976,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40">
         <v>18</v>
       </c>
       <c r="B19" s="162" t="s">
         <v>1068</v>
       </c>
-      <c r="C19" s="285" t="s">
+      <c r="C19" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D19" s="162" t="s">
@@ -30041,14 +30032,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40">
         <v>19</v>
       </c>
       <c r="B20" s="162" t="s">
         <v>1069</v>
       </c>
-      <c r="C20" s="285" t="s">
+      <c r="C20" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D20" s="162" t="s">
@@ -30097,14 +30088,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="40">
         <v>20</v>
       </c>
       <c r="B21" s="162" t="s">
         <v>1070</v>
       </c>
-      <c r="C21" s="285" t="s">
+      <c r="C21" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D21" s="162" t="s">
@@ -30153,14 +30144,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40">
         <v>21</v>
       </c>
       <c r="B22" s="162" t="s">
         <v>1071</v>
       </c>
-      <c r="C22" s="285" t="s">
+      <c r="C22" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D22" s="162" t="s">
@@ -30209,14 +30200,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="40">
         <v>22</v>
       </c>
       <c r="B23" s="162" t="s">
         <v>1072</v>
       </c>
-      <c r="C23" s="285" t="s">
+      <c r="C23" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D23" s="162" t="s">
@@ -30265,14 +30256,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40">
         <v>23</v>
       </c>
       <c r="B24" s="162" t="s">
         <v>1073</v>
       </c>
-      <c r="C24" s="285" t="s">
+      <c r="C24" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D24" s="162" t="s">
@@ -30321,14 +30312,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
         <v>24</v>
       </c>
       <c r="B25" s="162" t="s">
         <v>1074</v>
       </c>
-      <c r="C25" s="285" t="s">
+      <c r="C25" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D25" s="162" t="s">
@@ -30377,14 +30368,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40">
         <v>25</v>
       </c>
       <c r="B26" s="162" t="s">
         <v>1075</v>
       </c>
-      <c r="C26" s="285" t="s">
+      <c r="C26" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D26" s="162" t="s">
@@ -30433,14 +30424,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40">
         <v>26</v>
       </c>
       <c r="B27" s="162" t="s">
         <v>1076</v>
       </c>
-      <c r="C27" s="285" t="s">
+      <c r="C27" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D27" s="162" t="s">
@@ -30489,14 +30480,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="40">
         <v>27</v>
       </c>
       <c r="B28" s="162" t="s">
         <v>1077</v>
       </c>
-      <c r="C28" s="285" t="s">
+      <c r="C28" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D28" s="162" t="s">
@@ -30545,14 +30536,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="40">
         <v>28</v>
       </c>
       <c r="B29" s="162" t="s">
         <v>1078</v>
       </c>
-      <c r="C29" s="285" t="s">
+      <c r="C29" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D29" s="162" t="s">
@@ -30601,14 +30592,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="40">
         <v>29</v>
       </c>
       <c r="B30" s="162" t="s">
         <v>1079</v>
       </c>
-      <c r="C30" s="285" t="s">
+      <c r="C30" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D30" s="162" t="s">
@@ -30657,14 +30648,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40">
         <v>30</v>
       </c>
       <c r="B31" s="162" t="s">
         <v>1080</v>
       </c>
-      <c r="C31" s="285" t="s">
+      <c r="C31" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D31" s="162" t="s">
@@ -30713,14 +30704,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40">
         <v>31</v>
       </c>
       <c r="B32" s="162" t="s">
         <v>1081</v>
       </c>
-      <c r="C32" s="285" t="s">
+      <c r="C32" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D32" s="162" t="s">
@@ -30769,14 +30760,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="40">
         <v>32</v>
       </c>
       <c r="B33" s="162" t="s">
         <v>1082</v>
       </c>
-      <c r="C33" s="285" t="s">
+      <c r="C33" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D33" s="162" t="s">
@@ -30825,14 +30816,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="40">
         <v>33</v>
       </c>
       <c r="B34" s="162" t="s">
         <v>1083</v>
       </c>
-      <c r="C34" s="285" t="s">
+      <c r="C34" s="282" t="s">
         <v>1367</v>
       </c>
       <c r="D34" s="162" t="s">
@@ -30881,7 +30872,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="59">
         <v>34</v>
       </c>
@@ -30937,7 +30928,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="52">
         <v>35</v>
       </c>
@@ -30986,14 +30977,14 @@
       <c r="P36" s="219" t="s">
         <v>1448</v>
       </c>
-      <c r="Q36" s="246" t="s">
+      <c r="Q36" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R36" s="246" t="s">
+      <c r="R36" s="243" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="52">
         <v>36</v>
       </c>
@@ -31042,14 +31033,14 @@
       <c r="P37" s="219" t="s">
         <v>1448</v>
       </c>
-      <c r="Q37" s="246" t="s">
+      <c r="Q37" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R37" s="246" t="s">
+      <c r="R37" s="243" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="52">
         <v>37</v>
       </c>
@@ -31105,10 +31096,10 @@
         <v>699</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:R38" xr:uid="{00000000-0001-0000-0E00-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31123,29 +31114,29 @@
       <selection activeCell="K5" sqref="K5:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="16" customWidth="1"/>
     <col min="2" max="2" width="43.59765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="17" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" style="17" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="18" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="18" customWidth="1"/>
     <col min="9" max="9" width="16" style="16" customWidth="1"/>
     <col min="10" max="10" width="14" style="15" customWidth="1"/>
-    <col min="11" max="11" width="30.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.796875" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.19921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55.8984375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="11.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.796875" style="15" customWidth="1"/>
     <col min="17" max="17" width="38.3984375" style="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="15" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -31201,7 +31192,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -31257,7 +31248,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -31267,7 +31258,7 @@
       <c r="C3" s="88" t="s">
         <v>1368</v>
       </c>
-      <c r="D3" s="283" t="s">
+      <c r="D3" s="280" t="s">
         <v>1368</v>
       </c>
       <c r="E3" s="35" t="s">
@@ -31313,7 +31304,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -31369,7 +31360,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -31418,14 +31409,14 @@
       <c r="P5" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q5" s="241" t="s">
+      <c r="Q5" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R5" s="241" t="s">
+      <c r="R5" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -31474,14 +31465,14 @@
       <c r="P6" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q6" s="241" t="s">
+      <c r="Q6" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R6" s="241" t="s">
+      <c r="R6" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -31530,14 +31521,14 @@
       <c r="P7" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q7" s="241" t="s">
+      <c r="Q7" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R7" s="241" t="s">
+      <c r="R7" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -31586,14 +31577,14 @@
       <c r="P8" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q8" s="241" t="s">
+      <c r="Q8" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R8" s="241" t="s">
+      <c r="R8" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -31642,14 +31633,14 @@
       <c r="P9" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q9" s="241" t="s">
+      <c r="Q9" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R9" s="241" t="s">
+      <c r="R9" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40">
         <v>9</v>
       </c>
@@ -31698,14 +31689,14 @@
       <c r="P10" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q10" s="241" t="s">
+      <c r="Q10" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R10" s="241" t="s">
+      <c r="R10" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -31754,14 +31745,14 @@
       <c r="P11" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q11" s="241" t="s">
+      <c r="Q11" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R11" s="241" t="s">
+      <c r="R11" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="40">
         <v>11</v>
       </c>
@@ -31810,14 +31801,14 @@
       <c r="P12" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q12" s="241" t="s">
+      <c r="Q12" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R12" s="241" t="s">
+      <c r="R12" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -31866,14 +31857,14 @@
       <c r="P13" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q13" s="241" t="s">
+      <c r="Q13" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R13" s="241" t="s">
+      <c r="R13" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -31922,14 +31913,14 @@
       <c r="P14" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q14" s="241" t="s">
+      <c r="Q14" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R14" s="241" t="s">
+      <c r="R14" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -31978,14 +31969,14 @@
       <c r="P15" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q15" s="241" t="s">
+      <c r="Q15" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R15" s="241" t="s">
+      <c r="R15" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -32034,14 +32025,14 @@
       <c r="P16" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q16" s="241" t="s">
+      <c r="Q16" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R16" s="241" t="s">
+      <c r="R16" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40">
         <v>16</v>
       </c>
@@ -32090,14 +32081,14 @@
       <c r="P17" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q17" s="241" t="s">
+      <c r="Q17" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R17" s="241" t="s">
+      <c r="R17" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40">
         <v>17</v>
       </c>
@@ -32146,14 +32137,14 @@
       <c r="P18" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q18" s="241" t="s">
+      <c r="Q18" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R18" s="241" t="s">
+      <c r="R18" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40">
         <v>18</v>
       </c>
@@ -32202,14 +32193,14 @@
       <c r="P19" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q19" s="241" t="s">
+      <c r="Q19" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R19" s="241" t="s">
+      <c r="R19" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -32258,14 +32249,14 @@
       <c r="P20" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q20" s="241" t="s">
+      <c r="Q20" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R20" s="241" t="s">
+      <c r="R20" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="40">
         <v>20</v>
       </c>
@@ -32314,14 +32305,14 @@
       <c r="P21" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q21" s="241" t="s">
+      <c r="Q21" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R21" s="241" t="s">
+      <c r="R21" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -32370,14 +32361,14 @@
       <c r="P22" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q22" s="241" t="s">
+      <c r="Q22" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R22" s="241" t="s">
+      <c r="R22" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -32426,14 +32417,14 @@
       <c r="P23" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q23" s="241" t="s">
+      <c r="Q23" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R23" s="241" t="s">
+      <c r="R23" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -32482,14 +32473,14 @@
       <c r="P24" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q24" s="241" t="s">
+      <c r="Q24" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R24" s="241" t="s">
+      <c r="R24" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -32538,14 +32529,14 @@
       <c r="P25" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q25" s="241" t="s">
+      <c r="Q25" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R25" s="241" t="s">
+      <c r="R25" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40">
         <v>25</v>
       </c>
@@ -32594,14 +32585,14 @@
       <c r="P26" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q26" s="241" t="s">
+      <c r="Q26" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R26" s="241" t="s">
+      <c r="R26" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40">
         <v>26</v>
       </c>
@@ -32650,14 +32641,14 @@
       <c r="P27" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q27" s="241" t="s">
+      <c r="Q27" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R27" s="241" t="s">
+      <c r="R27" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="40">
         <v>27</v>
       </c>
@@ -32706,14 +32697,14 @@
       <c r="P28" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q28" s="241" t="s">
+      <c r="Q28" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R28" s="241" t="s">
+      <c r="R28" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="40">
         <v>28</v>
       </c>
@@ -32762,14 +32753,14 @@
       <c r="P29" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q29" s="241" t="s">
+      <c r="Q29" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R29" s="241" t="s">
+      <c r="R29" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="40">
         <v>29</v>
       </c>
@@ -32818,14 +32809,14 @@
       <c r="P30" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q30" s="241" t="s">
+      <c r="Q30" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R30" s="241" t="s">
+      <c r="R30" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40">
         <v>30</v>
       </c>
@@ -32874,21 +32865,21 @@
       <c r="P31" s="221" t="s">
         <v>1451</v>
       </c>
-      <c r="Q31" s="241" t="s">
+      <c r="Q31" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R31" s="241" t="s">
+      <c r="R31" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="52">
         <v>31</v>
       </c>
       <c r="B32" s="172" t="s">
         <v>1118</v>
       </c>
-      <c r="C32" s="281" t="s">
+      <c r="C32" s="278" t="s">
         <v>1368</v>
       </c>
       <c r="D32" s="150" t="s">
@@ -32937,14 +32928,14 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="52">
         <v>32</v>
       </c>
       <c r="B33" s="150" t="s">
         <v>1119</v>
       </c>
-      <c r="C33" s="281" t="s">
+      <c r="C33" s="278" t="s">
         <v>1368</v>
       </c>
       <c r="D33" s="150" t="s">
@@ -32983,7 +32974,7 @@
       <c r="O33" s="56">
         <v>1</v>
       </c>
-      <c r="P33" s="245" t="s">
+      <c r="P33" s="242" t="s">
         <v>1453</v>
       </c>
       <c r="Q33" s="58" t="s">
@@ -32993,14 +32984,14 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="52">
         <v>33</v>
       </c>
       <c r="B34" s="150" t="s">
         <v>1120</v>
       </c>
-      <c r="C34" s="281" t="s">
+      <c r="C34" s="278" t="s">
         <v>1368</v>
       </c>
       <c r="D34" s="150" t="s">
@@ -33049,7 +33040,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="190">
         <v>34</v>
       </c>
@@ -33095,7 +33086,7 @@
       <c r="O35" s="125">
         <v>0</v>
       </c>
-      <c r="P35" s="255" t="s">
+      <c r="P35" s="252" t="s">
         <v>719</v>
       </c>
       <c r="Q35" s="201" t="s">
@@ -33105,7 +33096,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="190">
         <v>35</v>
       </c>
@@ -33151,7 +33142,7 @@
       <c r="O36" s="125">
         <v>0</v>
       </c>
-      <c r="P36" s="255" t="s">
+      <c r="P36" s="252" t="s">
         <v>719</v>
       </c>
       <c r="Q36" s="201" t="s">
@@ -33161,14 +33152,14 @@
         <v>516</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="185">
         <v>36</v>
       </c>
       <c r="B37" s="186" t="s">
         <v>1123</v>
       </c>
-      <c r="C37" s="282" t="s">
+      <c r="C37" s="279" t="s">
         <v>1368</v>
       </c>
       <c r="D37" s="186" t="s">
@@ -33207,7 +33198,7 @@
       <c r="O37" s="185">
         <v>83</v>
       </c>
-      <c r="P37" s="256" t="s">
+      <c r="P37" s="253" t="s">
         <v>750</v>
       </c>
       <c r="Q37" s="182" t="s">
@@ -33231,28 +33222,28 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" style="5" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="4" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="13.3984375" customWidth="1"/>
-    <col min="11" max="11" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.296875" customWidth="1"/>
-    <col min="13" max="13" width="11.69921875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" style="7" customWidth="1"/>
     <col min="14" max="14" width="18.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="55.3984375" customWidth="1"/>
     <col min="17" max="17" width="38.3984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -33308,7 +33299,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="204">
         <v>1</v>
       </c>
@@ -33364,7 +33355,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="208">
         <v>2</v>
       </c>
@@ -33413,14 +33404,14 @@
       <c r="P3" s="218" t="s">
         <v>1457</v>
       </c>
-      <c r="Q3" s="257" t="s">
+      <c r="Q3" s="254" t="s">
         <v>1397</v>
       </c>
-      <c r="R3" s="257" t="s">
+      <c r="R3" s="254" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="208">
         <v>3</v>
       </c>
@@ -33469,14 +33460,14 @@
       <c r="P4" s="218" t="s">
         <v>1457</v>
       </c>
-      <c r="Q4" s="257" t="s">
+      <c r="Q4" s="254" t="s">
         <v>1397</v>
       </c>
-      <c r="R4" s="257" t="s">
+      <c r="R4" s="254" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="208">
         <v>4</v>
       </c>
@@ -33525,14 +33516,14 @@
       <c r="P5" s="218" t="s">
         <v>1457</v>
       </c>
-      <c r="Q5" s="257" t="s">
+      <c r="Q5" s="254" t="s">
         <v>1397</v>
       </c>
-      <c r="R5" s="257" t="s">
+      <c r="R5" s="254" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="208">
         <v>5</v>
       </c>
@@ -33581,14 +33572,14 @@
       <c r="P6" s="218" t="s">
         <v>1457</v>
       </c>
-      <c r="Q6" s="257" t="s">
+      <c r="Q6" s="254" t="s">
         <v>1397</v>
       </c>
-      <c r="R6" s="257" t="s">
+      <c r="R6" s="254" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="208">
         <v>6</v>
       </c>
@@ -33637,14 +33628,14 @@
       <c r="P7" s="218" t="s">
         <v>1457</v>
       </c>
-      <c r="Q7" s="257" t="s">
+      <c r="Q7" s="254" t="s">
         <v>1397</v>
       </c>
-      <c r="R7" s="257" t="s">
+      <c r="R7" s="254" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="209">
         <v>7</v>
       </c>
@@ -33700,7 +33691,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="209">
         <v>8</v>
       </c>
@@ -33756,7 +33747,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="209">
         <v>9</v>
       </c>
@@ -33812,7 +33803,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="209">
         <v>10</v>
       </c>
@@ -33868,7 +33859,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="209">
         <v>11</v>
       </c>
@@ -33924,7 +33915,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="209">
         <v>12</v>
       </c>
@@ -33980,7 +33971,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="209">
         <v>13</v>
       </c>
@@ -34036,7 +34027,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="209">
         <v>14</v>
       </c>
@@ -34092,7 +34083,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="209">
         <v>15</v>
       </c>
@@ -34148,7 +34139,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="209">
         <v>16</v>
       </c>
@@ -34204,7 +34195,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="209">
         <v>17</v>
       </c>
@@ -34260,7 +34251,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="209">
         <v>18</v>
       </c>
@@ -34316,7 +34307,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="209">
         <v>19</v>
       </c>
@@ -34372,7 +34363,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="209">
         <v>20</v>
       </c>
@@ -34428,7 +34419,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="209">
         <v>21</v>
       </c>
@@ -34484,7 +34475,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="209">
         <v>22</v>
       </c>
@@ -34540,7 +34531,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="209">
         <v>23</v>
       </c>
@@ -34596,7 +34587,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="209">
         <v>24</v>
       </c>
@@ -34652,7 +34643,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="209">
         <v>25</v>
       </c>
@@ -34708,7 +34699,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="209">
         <v>26</v>
       </c>
@@ -34764,7 +34755,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="210">
         <v>27</v>
       </c>
@@ -34820,7 +34811,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="210">
         <v>28</v>
       </c>
@@ -34876,15 +34867,15 @@
         <v>575</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:R29" xr:uid="{00000000-0001-0000-1000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34895,33 +34886,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.69921875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.59765625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="19" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" style="19" customWidth="1"/>
     <col min="6" max="6" width="28.19921875" style="19" customWidth="1"/>
     <col min="7" max="7" width="11.796875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="13.296875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.19921875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.3984375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="30.296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.19921875" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.19921875" style="19" customWidth="1"/>
-    <col min="13" max="13" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.8984375" customWidth="1"/>
+    <col min="16" max="16" width="49.796875" customWidth="1"/>
     <col min="17" max="17" width="38.59765625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -34977,11 +34968,11 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="248" t="s">
         <v>1458</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -35033,7 +35024,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -35089,7 +35080,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -35145,7 +35136,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -35201,7 +35192,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -35257,7 +35248,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -35309,11 +35300,11 @@
       <c r="Q7" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R7" s="241" t="s">
+      <c r="R7" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -35365,11 +35356,11 @@
       <c r="Q8" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R8" s="241" t="s">
+      <c r="R8" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -35421,11 +35412,11 @@
       <c r="Q9" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R9" s="241" t="s">
+      <c r="R9" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40">
         <v>9</v>
       </c>
@@ -35477,11 +35468,11 @@
       <c r="Q10" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R10" s="241" t="s">
+      <c r="R10" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -35533,11 +35524,11 @@
       <c r="Q11" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R11" s="241" t="s">
+      <c r="R11" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="40">
         <v>11</v>
       </c>
@@ -35589,11 +35580,11 @@
       <c r="Q12" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R12" s="241" t="s">
+      <c r="R12" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -35645,11 +35636,11 @@
       <c r="Q13" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R13" s="241" t="s">
+      <c r="R13" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -35701,11 +35692,11 @@
       <c r="Q14" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R14" s="241" t="s">
+      <c r="R14" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -35757,11 +35748,11 @@
       <c r="Q15" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R15" s="241" t="s">
+      <c r="R15" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -35813,11 +35804,11 @@
       <c r="Q16" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R16" s="241" t="s">
+      <c r="R16" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40">
         <v>16</v>
       </c>
@@ -35869,11 +35860,11 @@
       <c r="Q17" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R17" s="241" t="s">
+      <c r="R17" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40">
         <v>17</v>
       </c>
@@ -35925,11 +35916,11 @@
       <c r="Q18" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R18" s="241" t="s">
+      <c r="R18" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40">
         <v>18</v>
       </c>
@@ -35982,11 +35973,11 @@
       <c r="Q19" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R19" s="241" t="s">
+      <c r="R19" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -36038,11 +36029,11 @@
       <c r="Q20" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R20" s="241" t="s">
+      <c r="R20" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="40">
         <v>20</v>
       </c>
@@ -36094,11 +36085,11 @@
       <c r="Q21" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R21" s="241" t="s">
+      <c r="R21" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -36150,11 +36141,11 @@
       <c r="Q22" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R22" s="241" t="s">
+      <c r="R22" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -36206,11 +36197,11 @@
       <c r="Q23" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R23" s="241" t="s">
+      <c r="R23" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -36262,11 +36253,11 @@
       <c r="Q24" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R24" s="241" t="s">
+      <c r="R24" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -36318,11 +36309,11 @@
       <c r="Q25" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R25" s="241" t="s">
+      <c r="R25" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40">
         <v>25</v>
       </c>
@@ -36374,11 +36365,11 @@
       <c r="Q26" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R26" s="241" t="s">
+      <c r="R26" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40">
         <v>26</v>
       </c>
@@ -36430,11 +36421,11 @@
       <c r="Q27" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R27" s="241" t="s">
+      <c r="R27" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="40">
         <v>27</v>
       </c>
@@ -36486,11 +36477,11 @@
       <c r="Q28" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R28" s="241" t="s">
+      <c r="R28" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="40">
         <v>28</v>
       </c>
@@ -36542,11 +36533,11 @@
       <c r="Q29" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R29" s="241" t="s">
+      <c r="R29" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="40">
         <v>29</v>
       </c>
@@ -36598,11 +36589,11 @@
       <c r="Q30" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R30" s="241" t="s">
+      <c r="R30" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40">
         <v>30</v>
       </c>
@@ -36654,11 +36645,11 @@
       <c r="Q31" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R31" s="241" t="s">
+      <c r="R31" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40">
         <v>31</v>
       </c>
@@ -36710,11 +36701,11 @@
       <c r="Q32" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R32" s="241" t="s">
+      <c r="R32" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="40">
         <v>32</v>
       </c>
@@ -36766,11 +36757,11 @@
       <c r="Q33" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R33" s="241" t="s">
+      <c r="R33" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="40">
         <v>33</v>
       </c>
@@ -36822,11 +36813,11 @@
       <c r="Q34" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R34" s="241" t="s">
+      <c r="R34" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
         <v>34</v>
       </c>
@@ -36878,11 +36869,11 @@
       <c r="Q35" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R35" s="241" t="s">
+      <c r="R35" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="40">
         <v>35</v>
       </c>
@@ -36934,11 +36925,11 @@
       <c r="Q36" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R36" s="241" t="s">
+      <c r="R36" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="40">
         <v>36</v>
       </c>
@@ -36990,11 +36981,11 @@
       <c r="Q37" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R37" s="241" t="s">
+      <c r="R37" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="40">
         <v>37</v>
       </c>
@@ -37046,11 +37037,11 @@
       <c r="Q38" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R38" s="241" t="s">
+      <c r="R38" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="40">
         <v>38</v>
       </c>
@@ -37102,11 +37093,11 @@
       <c r="Q39" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R39" s="241" t="s">
+      <c r="R39" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="40">
         <v>39</v>
       </c>
@@ -37158,11 +37149,11 @@
       <c r="Q40" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R40" s="241" t="s">
+      <c r="R40" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="40">
         <v>40</v>
       </c>
@@ -37214,11 +37205,11 @@
       <c r="Q41" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R41" s="241" t="s">
+      <c r="R41" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="40">
         <v>41</v>
       </c>
@@ -37270,11 +37261,11 @@
       <c r="Q42" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R42" s="241" t="s">
+      <c r="R42" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="40">
         <v>42</v>
       </c>
@@ -37326,11 +37317,11 @@
       <c r="Q43" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R43" s="241" t="s">
+      <c r="R43" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="40">
         <v>43</v>
       </c>
@@ -37382,11 +37373,11 @@
       <c r="Q44" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R44" s="241" t="s">
+      <c r="R44" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="40">
         <v>44</v>
       </c>
@@ -37438,11 +37429,11 @@
       <c r="Q45" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R45" s="241" t="s">
+      <c r="R45" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="40">
         <v>45</v>
       </c>
@@ -37494,11 +37485,11 @@
       <c r="Q46" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R46" s="241" t="s">
+      <c r="R46" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="40">
         <v>46</v>
       </c>
@@ -37550,11 +37541,11 @@
       <c r="Q47" s="220" t="s">
         <v>718</v>
       </c>
-      <c r="R47" s="241" t="s">
+      <c r="R47" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="59">
         <v>47</v>
       </c>
@@ -37610,7 +37601,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="190">
         <v>48</v>
       </c>
@@ -37656,7 +37647,7 @@
       <c r="O49" s="125">
         <v>0</v>
       </c>
-      <c r="P49" s="258" t="s">
+      <c r="P49" s="255" t="s">
         <v>751</v>
       </c>
       <c r="Q49" s="176" t="s">
@@ -37676,72 +37667,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="53.796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.796875" style="8" customWidth="1"/>
     <col min="5" max="5" width="17.59765625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" customWidth="1"/>
     <col min="7" max="7" width="14" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15" style="8" customWidth="1"/>
     <col min="9" max="9" width="16" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.8984375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.796875" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.3984375" style="8" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.59765625" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="71.19921875" style="9" customWidth="1"/>
     <col min="17" max="17" width="39.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.69921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="234" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="238" t="s">
+      <c r="B1" s="235" t="s">
         <v>705</v>
       </c>
-      <c r="C1" s="238" t="s">
+      <c r="C1" s="235" t="s">
         <v>706</v>
       </c>
       <c r="D1" s="235" t="s">
         <v>707</v>
       </c>
-      <c r="E1" s="239" t="s">
+      <c r="E1" s="234" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="239" t="s">
+      <c r="F1" s="234" t="s">
         <v>522</v>
       </c>
-      <c r="G1" s="239" t="s">
+      <c r="G1" s="234" t="s">
         <v>523</v>
       </c>
-      <c r="H1" s="239" t="s">
+      <c r="H1" s="234" t="s">
         <v>524</v>
       </c>
-      <c r="I1" s="239" t="s">
+      <c r="I1" s="234" t="s">
         <v>525</v>
       </c>
-      <c r="J1" s="240" t="s">
+      <c r="J1" s="236" t="s">
         <v>708</v>
       </c>
-      <c r="K1" s="240" t="s">
+      <c r="K1" s="236" t="s">
         <v>709</v>
       </c>
       <c r="L1" s="236" t="s">
         <v>710</v>
       </c>
       <c r="M1" s="237" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N1" s="235" t="s">
         <v>713</v>
@@ -37759,7 +37750,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -37815,7 +37806,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -37871,7 +37862,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -37927,7 +37918,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -37983,7 +37974,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -38039,7 +38030,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -38095,7 +38086,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -38151,7 +38142,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -38207,7 +38198,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40">
         <v>9</v>
       </c>
@@ -38263,7 +38254,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -38319,7 +38310,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -38375,7 +38366,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -38431,7 +38422,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -38487,7 +38478,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -38543,7 +38534,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -38599,7 +38590,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -38655,7 +38646,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
         <v>17</v>
       </c>
@@ -38711,7 +38702,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
         <v>18</v>
       </c>
@@ -38767,7 +38758,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
         <v>19</v>
       </c>
@@ -38823,7 +38814,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="52">
         <v>20</v>
       </c>
@@ -38879,7 +38870,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="190">
         <v>21</v>
       </c>
@@ -38925,7 +38916,7 @@
       <c r="O22" s="125">
         <v>0</v>
       </c>
-      <c r="P22" s="258" t="s">
+      <c r="P22" s="255" t="s">
         <v>719</v>
       </c>
       <c r="Q22" s="176" t="s">
@@ -38935,21 +38926,21 @@
         <v>519</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="17.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:18" ht="17.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:R22" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38961,33 +38952,33 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="R1" sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="8" customWidth="1"/>
     <col min="2" max="2" width="53.796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="8" customWidth="1"/>
     <col min="4" max="4" width="17.796875" style="8" customWidth="1"/>
     <col min="5" max="5" width="17.59765625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" customWidth="1"/>
     <col min="7" max="7" width="14" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15" style="8" customWidth="1"/>
     <col min="9" max="9" width="16" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.8984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.69921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="67.69921875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="67.59765625" style="8" customWidth="1"/>
     <col min="17" max="17" width="39.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="41.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="9" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="9" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="234" t="s">
         <v>520</v>
       </c>
@@ -39043,7 +39034,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="82">
         <v>1</v>
       </c>
@@ -39099,7 +39090,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="79">
         <v>2</v>
       </c>
@@ -39155,7 +39146,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="75">
         <v>3</v>
       </c>
@@ -39211,7 +39202,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="75">
         <v>4</v>
       </c>
@@ -39267,7 +39258,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="75">
         <v>5</v>
       </c>
@@ -39323,7 +39314,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="69">
         <v>6</v>
       </c>
@@ -39372,14 +39363,14 @@
       <c r="P7" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q7" s="241" t="s">
+      <c r="Q7" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R7" s="241" t="s">
+      <c r="R7" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="69">
         <v>7</v>
       </c>
@@ -39428,14 +39419,14 @@
       <c r="P8" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q8" s="241" t="s">
+      <c r="Q8" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R8" s="241" t="s">
+      <c r="R8" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="69">
         <v>8</v>
       </c>
@@ -39484,14 +39475,14 @@
       <c r="P9" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q9" s="241" t="s">
+      <c r="Q9" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R9" s="241" t="s">
+      <c r="R9" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="69">
         <v>9</v>
       </c>
@@ -39540,14 +39531,14 @@
       <c r="P10" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q10" s="241" t="s">
+      <c r="Q10" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R10" s="241" t="s">
+      <c r="R10" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="69">
         <v>10</v>
       </c>
@@ -39596,14 +39587,14 @@
       <c r="P11" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q11" s="241" t="s">
+      <c r="Q11" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R11" s="241" t="s">
+      <c r="R11" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="69">
         <v>11</v>
       </c>
@@ -39652,14 +39643,14 @@
       <c r="P12" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q12" s="241" t="s">
+      <c r="Q12" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R12" s="241" t="s">
+      <c r="R12" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="69">
         <v>12</v>
       </c>
@@ -39708,14 +39699,14 @@
       <c r="P13" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q13" s="241" t="s">
+      <c r="Q13" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R13" s="241" t="s">
+      <c r="R13" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="69">
         <v>13</v>
       </c>
@@ -39764,14 +39755,14 @@
       <c r="P14" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q14" s="241" t="s">
+      <c r="Q14" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R14" s="241" t="s">
+      <c r="R14" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="69">
         <v>14</v>
       </c>
@@ -39820,14 +39811,14 @@
       <c r="P15" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q15" s="241" t="s">
+      <c r="Q15" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R15" s="241" t="s">
+      <c r="R15" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="69">
         <v>15</v>
       </c>
@@ -39876,14 +39867,14 @@
       <c r="P16" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q16" s="241" t="s">
+      <c r="Q16" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R16" s="241" t="s">
+      <c r="R16" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="69">
         <v>16</v>
       </c>
@@ -39932,14 +39923,14 @@
       <c r="P17" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q17" s="241" t="s">
+      <c r="Q17" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R17" s="241" t="s">
+      <c r="R17" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="69">
         <v>17</v>
       </c>
@@ -39988,14 +39979,14 @@
       <c r="P18" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q18" s="241" t="s">
+      <c r="Q18" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R18" s="241" t="s">
+      <c r="R18" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="69">
         <v>18</v>
       </c>
@@ -40044,14 +40035,14 @@
       <c r="P19" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q19" s="241" t="s">
+      <c r="Q19" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R19" s="241" t="s">
+      <c r="R19" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="69">
         <v>19</v>
       </c>
@@ -40100,14 +40091,14 @@
       <c r="P20" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q20" s="241" t="s">
+      <c r="Q20" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R20" s="241" t="s">
+      <c r="R20" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="69">
         <v>20</v>
       </c>
@@ -40156,14 +40147,14 @@
       <c r="P21" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q21" s="241" t="s">
+      <c r="Q21" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R21" s="241" t="s">
+      <c r="R21" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="69">
         <v>21</v>
       </c>
@@ -40212,14 +40203,14 @@
       <c r="P22" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q22" s="241" t="s">
+      <c r="Q22" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R22" s="241" t="s">
+      <c r="R22" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="69">
         <v>22</v>
       </c>
@@ -40268,14 +40259,14 @@
       <c r="P23" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q23" s="241" t="s">
+      <c r="Q23" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R23" s="241" t="s">
+      <c r="R23" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="69">
         <v>23</v>
       </c>
@@ -40324,14 +40315,14 @@
       <c r="P24" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q24" s="241" t="s">
+      <c r="Q24" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R24" s="241" t="s">
+      <c r="R24" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="69">
         <v>24</v>
       </c>
@@ -40380,14 +40371,14 @@
       <c r="P25" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q25" s="241" t="s">
+      <c r="Q25" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R25" s="241" t="s">
+      <c r="R25" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="69">
         <v>25</v>
       </c>
@@ -40436,14 +40427,14 @@
       <c r="P26" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q26" s="241" t="s">
+      <c r="Q26" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R26" s="241" t="s">
+      <c r="R26" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="69">
         <v>26</v>
       </c>
@@ -40492,14 +40483,14 @@
       <c r="P27" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q27" s="241" t="s">
+      <c r="Q27" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R27" s="241" t="s">
+      <c r="R27" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="69">
         <v>27</v>
       </c>
@@ -40548,14 +40539,14 @@
       <c r="P28" s="225" t="s">
         <v>1376</v>
       </c>
-      <c r="Q28" s="241" t="s">
+      <c r="Q28" s="238" t="s">
         <v>718</v>
       </c>
-      <c r="R28" s="241" t="s">
+      <c r="R28" s="238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65">
         <v>28</v>
       </c>
@@ -40611,7 +40602,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65">
         <v>29</v>
       </c>
@@ -40667,7 +40658,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="65">
         <v>30</v>
       </c>
@@ -40723,25 +40714,25 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="303"/>
-      <c r="B36" s="303"/>
-      <c r="C36" s="303"/>
-      <c r="D36" s="303"/>
-      <c r="E36" s="303"/>
-      <c r="F36" s="303"/>
-      <c r="G36" s="303"/>
-      <c r="H36" s="303"/>
-      <c r="I36" s="303"/>
-      <c r="J36" s="303"/>
-      <c r="K36" s="303"/>
-      <c r="L36" s="303"/>
-    </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="300"/>
+      <c r="B36" s="300"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="300"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="300"/>
+      <c r="G36" s="300"/>
+      <c r="H36" s="300"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="300"/>
+      <c r="K36" s="300"/>
+      <c r="L36" s="300"/>
+    </row>
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:R31" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <mergeCells count="1">
@@ -40759,29 +40750,29 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="19" customWidth="1"/>
     <col min="2" max="2" width="36" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="19" customWidth="1"/>
     <col min="4" max="4" width="14.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.8984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.09765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" style="19" customWidth="1"/>
     <col min="13" max="13" width="11.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.09765625" customWidth="1"/>
-    <col min="17" max="17" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58" customWidth="1"/>
+    <col min="17" max="17" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="234" t="s">
         <v>520</v>
       </c>
@@ -40818,7 +40809,7 @@
       <c r="L1" s="237" t="s">
         <v>710</v>
       </c>
-      <c r="M1" s="259" t="s">
+      <c r="M1" s="256" t="s">
         <v>712</v>
       </c>
       <c r="N1" s="235" t="s">
@@ -40837,7 +40828,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="130">
         <v>1</v>
       </c>
@@ -40893,7 +40884,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="40">
         <v>2</v>
       </c>
@@ -40949,7 +40940,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="40">
         <v>3</v>
       </c>
@@ -41005,7 +40996,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -41061,7 +41052,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -41117,7 +41108,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -41173,7 +41164,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="40">
         <v>7</v>
       </c>
@@ -41222,32 +41213,32 @@
       <c r="P8" s="225" t="s">
         <v>1386</v>
       </c>
-      <c r="Q8" s="260" t="s">
+      <c r="Q8" s="257" t="s">
         <v>718</v>
       </c>
-      <c r="R8" s="260" t="s">
+      <c r="R8" s="257" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" ht="17.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="17.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:18" ht="17.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="17.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:R8" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41262,28 +41253,28 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="43.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="4" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" customWidth="1"/>
-    <col min="13" max="13" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.796875" customWidth="1"/>
+    <col min="13" max="13" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="64.3984375" customWidth="1"/>
-    <col min="17" max="17" width="42.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="234" t="s">
         <v>520</v>
       </c>
@@ -41339,7 +41330,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="95">
         <v>1</v>
       </c>
@@ -41388,14 +41379,14 @@
       <c r="P2" s="102" t="s">
         <v>1379</v>
       </c>
-      <c r="Q2" s="242" t="s">
+      <c r="Q2" s="239" t="s">
         <v>1372</v>
       </c>
-      <c r="R2" s="242" t="s">
+      <c r="R2" s="239" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="104">
         <v>2</v>
       </c>
@@ -41451,7 +41442,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="104">
         <v>3</v>
       </c>
@@ -41507,7 +41498,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="104">
         <v>4</v>
       </c>
@@ -41563,7 +41554,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="104">
         <v>5</v>
       </c>
@@ -41619,7 +41610,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="104">
         <v>6</v>
       </c>
@@ -41675,7 +41666,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="104">
         <v>7</v>
       </c>
@@ -41731,7 +41722,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="104">
         <v>8</v>
       </c>
@@ -41787,7 +41778,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="104">
         <v>9</v>
       </c>
@@ -41843,7 +41834,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="104">
         <v>10</v>
       </c>
@@ -41899,7 +41890,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -41955,7 +41946,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -42011,7 +42002,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -42067,7 +42058,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -42123,7 +42114,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -42179,7 +42170,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -42235,7 +42226,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
         <v>17</v>
       </c>
@@ -42291,7 +42282,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
         <v>18</v>
       </c>
@@ -42347,7 +42338,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
         <v>19</v>
       </c>
@@ -42403,7 +42394,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="47">
         <v>20</v>
       </c>
@@ -42459,7 +42450,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47">
         <v>21</v>
       </c>
@@ -42515,7 +42506,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47">
         <v>22</v>
       </c>
@@ -42571,7 +42562,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47">
         <v>23</v>
       </c>
@@ -42627,7 +42618,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47">
         <v>24</v>
       </c>
@@ -42683,7 +42674,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="47">
         <v>25</v>
       </c>
@@ -42739,7 +42730,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47">
         <v>26</v>
       </c>
@@ -42795,7 +42786,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47">
         <v>27</v>
       </c>
@@ -42851,7 +42842,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47">
         <v>28</v>
       </c>
@@ -42907,7 +42898,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="47">
         <v>29</v>
       </c>
@@ -42963,7 +42954,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="47">
         <v>30</v>
       </c>
@@ -43019,7 +43010,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="47">
         <v>31</v>
       </c>
@@ -43075,7 +43066,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="47">
         <v>32</v>
       </c>
@@ -43131,7 +43122,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="47">
         <v>33</v>
       </c>
@@ -43187,7 +43178,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="47">
         <v>34</v>
       </c>
@@ -43243,7 +43234,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="47">
         <v>35</v>
       </c>
@@ -43299,7 +43290,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="47">
         <v>36</v>
       </c>
@@ -43355,7 +43346,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="47">
         <v>37</v>
       </c>
@@ -43411,7 +43402,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="47">
         <v>38</v>
       </c>
@@ -43467,7 +43458,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="111">
         <v>39</v>
       </c>
@@ -43523,7 +43514,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="111">
         <v>40</v>
       </c>
@@ -43579,7 +43570,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="111">
         <v>41</v>
       </c>
@@ -43635,7 +43626,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -43691,7 +43682,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="118">
         <v>43</v>
       </c>
@@ -43747,7 +43738,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="118">
         <v>44</v>
       </c>
@@ -43803,7 +43794,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="120">
         <v>45</v>
       </c>
@@ -43849,7 +43840,7 @@
       <c r="O46" s="125">
         <v>0</v>
       </c>
-      <c r="P46" s="250" t="s">
+      <c r="P46" s="247" t="s">
         <v>719</v>
       </c>
       <c r="Q46" s="223" t="s">
@@ -43859,7 +43850,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="120">
         <v>46</v>
       </c>
@@ -43905,7 +43896,7 @@
       <c r="O47" s="125">
         <v>0</v>
       </c>
-      <c r="P47" s="250" t="s">
+      <c r="P47" s="247" t="s">
         <v>719</v>
       </c>
       <c r="Q47" s="223" t="s">
@@ -43915,7 +43906,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="120">
         <v>47</v>
       </c>
@@ -43961,7 +43952,7 @@
       <c r="O48" s="125">
         <v>0</v>
       </c>
-      <c r="P48" s="250" t="s">
+      <c r="P48" s="247" t="s">
         <v>719</v>
       </c>
       <c r="Q48" s="223" t="s">
@@ -43971,7 +43962,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="120">
         <v>48</v>
       </c>
@@ -44017,7 +44008,7 @@
       <c r="O49" s="125">
         <v>0</v>
       </c>
-      <c r="P49" s="255" t="s">
+      <c r="P49" s="252" t="s">
         <v>719</v>
       </c>
       <c r="Q49" s="200" t="s">
@@ -44041,28 +44032,28 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="39.296875" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="5" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
     <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55.5" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.3984375" customWidth="1"/>
     <col min="17" max="17" width="38.3984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -44118,7 +44109,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="126">
         <v>1</v>
       </c>
@@ -44174,7 +44165,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="130">
         <v>2</v>
       </c>
@@ -44230,7 +44221,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="130">
         <v>3</v>
       </c>
@@ -44286,7 +44277,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="130">
         <v>4</v>
       </c>
@@ -44342,7 +44333,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="130">
         <v>5</v>
       </c>
@@ -44398,7 +44389,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="130">
         <v>6</v>
       </c>
@@ -44454,7 +44445,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="130">
         <v>7</v>
       </c>
@@ -44510,7 +44501,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130">
         <v>8</v>
       </c>
@@ -44566,7 +44557,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -44622,7 +44613,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -44678,7 +44669,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -44734,7 +44725,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -44790,7 +44781,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -44846,7 +44837,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -44902,7 +44893,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -44958,7 +44949,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -45014,7 +45005,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47">
         <v>17</v>
       </c>
@@ -45070,7 +45061,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="47">
         <v>18</v>
       </c>
@@ -45126,7 +45117,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47">
         <v>19</v>
       </c>
@@ -45182,7 +45173,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="47">
         <v>20</v>
       </c>
@@ -45236,7 +45227,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47">
         <v>21</v>
       </c>
@@ -45292,7 +45283,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47">
         <v>22</v>
       </c>
@@ -45348,7 +45339,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47">
         <v>23</v>
       </c>
@@ -45404,7 +45395,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="47">
         <v>24</v>
       </c>
@@ -45460,7 +45451,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="47">
         <v>25</v>
       </c>
@@ -45516,7 +45507,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47">
         <v>26</v>
       </c>
@@ -45572,7 +45563,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47">
         <v>27</v>
       </c>
@@ -45628,7 +45619,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47">
         <v>28</v>
       </c>
@@ -45684,7 +45675,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="47">
         <v>29</v>
       </c>
@@ -45740,7 +45731,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="47">
         <v>30</v>
       </c>
@@ -45796,7 +45787,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="47">
         <v>31</v>
       </c>
@@ -45852,7 +45843,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="47">
         <v>32</v>
       </c>
@@ -45908,7 +45899,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="47">
         <v>33</v>
       </c>
@@ -45964,7 +45955,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="47">
         <v>34</v>
       </c>
@@ -46020,7 +46011,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="47">
         <v>35</v>
       </c>
@@ -46076,7 +46067,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="47">
         <v>36</v>
       </c>
@@ -46132,7 +46123,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="47">
         <v>37</v>
       </c>
@@ -46188,7 +46179,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="47">
         <v>38</v>
       </c>
@@ -46244,7 +46235,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="111">
         <v>39</v>
       </c>
@@ -46300,7 +46291,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="118">
         <v>40</v>
       </c>
@@ -46346,7 +46337,7 @@
       <c r="O41" s="56">
         <v>3</v>
       </c>
-      <c r="P41" s="244" t="s">
+      <c r="P41" s="241" t="s">
         <v>738</v>
       </c>
       <c r="Q41" s="66" t="s">
@@ -46356,7 +46347,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="118">
         <v>41</v>
       </c>
@@ -46402,7 +46393,7 @@
       <c r="O42" s="56">
         <v>0</v>
       </c>
-      <c r="P42" s="244" t="s">
+      <c r="P42" s="241" t="s">
         <v>739</v>
       </c>
       <c r="Q42" s="66" t="s">
@@ -46412,7 +46403,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -46458,17 +46449,17 @@
       <c r="O43" s="56">
         <v>6</v>
       </c>
-      <c r="P43" s="245" t="s">
+      <c r="P43" s="242" t="s">
         <v>1395</v>
       </c>
-      <c r="Q43" s="247" t="s">
+      <c r="Q43" s="244" t="s">
         <v>718</v>
       </c>
-      <c r="R43" s="247" t="s">
+      <c r="R43" s="244" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="52">
         <v>43</v>
       </c>
@@ -46517,10 +46508,10 @@
       <c r="P44" s="219" t="s">
         <v>1392</v>
       </c>
-      <c r="Q44" s="248" t="s">
+      <c r="Q44" s="245" t="s">
         <v>718</v>
       </c>
-      <c r="R44" s="248" t="s">
+      <c r="R44" s="245" t="s">
         <v>516</v>
       </c>
     </row>
@@ -46539,28 +46530,28 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="39.296875" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.796875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="53.8984375" customWidth="1"/>
-    <col min="17" max="17" width="39.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.796875" customWidth="1"/>
+    <col min="17" max="17" width="39.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -46616,7 +46607,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="126">
         <v>1</v>
       </c>
@@ -46672,7 +46663,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -46728,7 +46719,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -46784,7 +46775,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -46840,7 +46831,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -46896,7 +46887,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -46952,7 +46943,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -47008,7 +46999,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -47064,7 +47055,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40">
         <v>9</v>
       </c>
@@ -47120,7 +47111,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -47176,7 +47167,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="40">
         <v>11</v>
       </c>
@@ -47232,7 +47223,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -47288,7 +47279,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -47344,7 +47335,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -47400,7 +47391,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -47456,7 +47447,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40">
         <v>16</v>
       </c>
@@ -47512,7 +47503,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40">
         <v>17</v>
       </c>
@@ -47568,7 +47559,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40">
         <v>18</v>
       </c>
@@ -47624,7 +47615,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -47680,7 +47671,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="40">
         <v>20</v>
       </c>
@@ -47736,7 +47727,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -47792,7 +47783,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -47848,7 +47839,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -47904,7 +47895,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -47960,7 +47951,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40">
         <v>25</v>
       </c>
@@ -48016,7 +48007,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40">
         <v>26</v>
       </c>
@@ -48072,7 +48063,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="40">
         <v>27</v>
       </c>
@@ -48128,7 +48119,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="40">
         <v>28</v>
       </c>
@@ -48184,7 +48175,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="40">
         <v>29</v>
       </c>
@@ -48240,7 +48231,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40">
         <v>30</v>
       </c>
@@ -48296,7 +48287,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40">
         <v>31</v>
       </c>
@@ -48342,17 +48333,17 @@
       <c r="O32" s="72">
         <v>0</v>
       </c>
-      <c r="P32" s="249" t="s">
+      <c r="P32" s="246" t="s">
         <v>740</v>
       </c>
-      <c r="Q32" s="243" t="s">
+      <c r="Q32" s="240" t="s">
         <v>1403</v>
       </c>
       <c r="R32" s="220" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="40">
         <v>32</v>
       </c>
@@ -48398,17 +48389,17 @@
       <c r="O33" s="72">
         <v>0</v>
       </c>
-      <c r="P33" s="249" t="s">
+      <c r="P33" s="246" t="s">
         <v>740</v>
       </c>
-      <c r="Q33" s="243" t="s">
+      <c r="Q33" s="240" t="s">
         <v>1403</v>
       </c>
       <c r="R33" s="220" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="40">
         <v>33</v>
       </c>
@@ -48454,17 +48445,17 @@
       <c r="O34" s="72">
         <v>0</v>
       </c>
-      <c r="P34" s="249" t="s">
+      <c r="P34" s="246" t="s">
         <v>740</v>
       </c>
-      <c r="Q34" s="243" t="s">
+      <c r="Q34" s="240" t="s">
         <v>1403</v>
       </c>
       <c r="R34" s="220" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="52">
         <v>34</v>
       </c>
@@ -48520,7 +48511,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="52">
         <v>35</v>
       </c>
@@ -48590,7 +48581,7 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="47.59765625" style="21" bestFit="1" customWidth="1"/>
@@ -48598,12 +48589,12 @@
     <col min="4" max="4" width="24.19921875" style="21" customWidth="1"/>
     <col min="5" max="5" width="21.59765625" style="21" customWidth="1"/>
     <col min="6" max="6" width="21.59765625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="4" customWidth="1"/>
     <col min="9" max="9" width="16" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.09765625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.19921875" style="7" bestFit="1" customWidth="1"/>
@@ -48612,7 +48603,7 @@
     <col min="18" max="18" width="39.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -48668,7 +48659,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="153">
         <v>1</v>
       </c>
@@ -48717,14 +48708,14 @@
       <c r="P2" s="160" t="s">
         <v>1422</v>
       </c>
-      <c r="Q2" s="277" t="s">
+      <c r="Q2" s="274" t="s">
         <v>1397</v>
       </c>
       <c r="R2" s="160" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -48780,7 +48771,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -48836,7 +48827,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -48892,7 +48883,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -48948,7 +48939,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -49004,7 +48995,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>7</v>
       </c>
@@ -49060,7 +49051,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45">
         <v>8</v>
       </c>
@@ -49116,7 +49107,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
         <v>9</v>
       </c>
@@ -49172,7 +49163,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="45">
         <v>10</v>
       </c>
@@ -49228,7 +49219,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45">
         <v>11</v>
       </c>
@@ -49284,7 +49275,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="45">
         <v>12</v>
       </c>
@@ -49340,7 +49331,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="45">
         <v>13</v>
       </c>
@@ -49396,7 +49387,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="45">
         <v>14</v>
       </c>
@@ -49452,7 +49443,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="45">
         <v>15</v>
       </c>
@@ -49508,7 +49499,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45">
         <v>16</v>
       </c>
@@ -49564,7 +49555,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="45">
         <v>17</v>
       </c>
@@ -49620,7 +49611,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="45">
         <v>18</v>
       </c>
@@ -49676,7 +49667,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="45">
         <v>19</v>
       </c>
@@ -49732,7 +49723,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="63">
         <v>20</v>
       </c>
@@ -49779,10 +49770,10 @@
         <v>5</v>
       </c>
       <c r="P21" s="167"/>
-      <c r="Q21" s="278"/>
+      <c r="Q21" s="275"/>
       <c r="R21" s="168"/>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="63">
         <v>21</v>
       </c>
@@ -49828,7 +49819,7 @@
       <c r="Q22" s="64"/>
       <c r="R22" s="64"/>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="63">
         <v>22</v>
       </c>
@@ -49878,7 +49869,7 @@
       <c r="Q23" s="64"/>
       <c r="R23" s="64"/>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="63">
         <v>23</v>
       </c>
@@ -49928,7 +49919,7 @@
       <c r="Q24" s="64"/>
       <c r="R24" s="64"/>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="63">
         <v>24</v>
       </c>
@@ -49984,7 +49975,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="63">
         <v>25</v>
       </c>
@@ -50034,7 +50025,7 @@
       <c r="Q26" s="64"/>
       <c r="R26" s="135"/>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="63">
         <v>26</v>
       </c>
@@ -50084,7 +50075,7 @@
       <c r="Q27" s="64"/>
       <c r="R27" s="64"/>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="63">
         <v>27</v>
       </c>
@@ -50134,7 +50125,7 @@
       <c r="Q28" s="64"/>
       <c r="R28" s="64"/>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="63">
         <v>28</v>
       </c>
@@ -50184,7 +50175,7 @@
       <c r="Q29" s="64"/>
       <c r="R29" s="64"/>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="63">
         <v>29</v>
       </c>
@@ -50234,7 +50225,7 @@
       <c r="Q30" s="64"/>
       <c r="R30" s="64"/>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="63">
         <v>30</v>
       </c>
@@ -50284,7 +50275,7 @@
       <c r="Q31" s="64"/>
       <c r="R31" s="64"/>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="63">
         <v>31</v>
       </c>
@@ -50334,7 +50325,7 @@
       <c r="Q32" s="64"/>
       <c r="R32" s="64"/>
     </row>
-    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="63">
         <v>32</v>
       </c>
@@ -50384,7 +50375,7 @@
       <c r="Q33" s="64"/>
       <c r="R33" s="64"/>
     </row>
-    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="63">
         <v>33</v>
       </c>
@@ -50434,7 +50425,7 @@
       <c r="Q34" s="64"/>
       <c r="R34" s="64"/>
     </row>
-    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="63">
         <v>34</v>
       </c>
@@ -50484,7 +50475,7 @@
       <c r="Q35" s="64"/>
       <c r="R35" s="64"/>
     </row>
-    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="56">
         <v>35</v>
       </c>
@@ -50528,7 +50519,7 @@
       <c r="Q36" s="66"/>
       <c r="R36" s="66"/>
     </row>
-    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="56">
         <v>36</v>
       </c>
@@ -50572,7 +50563,7 @@
       <c r="Q37" s="66"/>
       <c r="R37" s="66"/>
     </row>
-    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="56">
         <v>37</v>
       </c>
@@ -50616,7 +50607,7 @@
       <c r="Q38" s="66"/>
       <c r="R38" s="66"/>
     </row>
-    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="56">
         <v>38</v>
       </c>
@@ -50660,7 +50651,7 @@
       <c r="Q39" s="66"/>
       <c r="R39" s="66"/>
     </row>
-    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="56">
         <v>39</v>
       </c>
@@ -50708,7 +50699,7 @@
       <c r="Q40" s="66"/>
       <c r="R40" s="66"/>
     </row>
-    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="56">
         <v>40</v>
       </c>
@@ -50758,7 +50749,7 @@
       <c r="Q41" s="66"/>
       <c r="R41" s="66"/>
     </row>
-    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="56">
         <v>41</v>
       </c>
@@ -50808,7 +50799,7 @@
       <c r="Q42" s="66"/>
       <c r="R42" s="66"/>
     </row>
-    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="56">
         <v>42</v>
       </c>
@@ -50858,7 +50849,7 @@
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
     </row>
-    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="56">
         <v>43</v>
       </c>
@@ -50906,7 +50897,7 @@
       <c r="Q44" s="66"/>
       <c r="R44" s="66"/>
     </row>
-    <row r="45" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="56">
         <v>44</v>
       </c>
@@ -50956,7 +50947,7 @@
       <c r="Q45" s="66"/>
       <c r="R45" s="66"/>
     </row>
-    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="56">
         <v>45</v>
       </c>
@@ -51006,7 +50997,7 @@
       <c r="Q46" s="66"/>
       <c r="R46" s="66"/>
     </row>
-    <row r="47" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="56">
         <v>46</v>
       </c>
@@ -51056,7 +51047,7 @@
       <c r="Q47" s="66"/>
       <c r="R47" s="66"/>
     </row>
-    <row r="48" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="56">
         <v>47</v>
       </c>
@@ -51106,7 +51097,7 @@
       <c r="Q48" s="66"/>
       <c r="R48" s="66"/>
     </row>
-    <row r="49" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="56">
         <v>48</v>
       </c>
@@ -51156,7 +51147,7 @@
       <c r="Q49" s="66"/>
       <c r="R49" s="66"/>
     </row>
-    <row r="50" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="56">
         <v>49</v>
       </c>
@@ -51206,7 +51197,7 @@
       <c r="Q50" s="66"/>
       <c r="R50" s="66"/>
     </row>
-    <row r="51" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="56">
         <v>50</v>
       </c>
@@ -51256,7 +51247,7 @@
       <c r="Q51" s="66"/>
       <c r="R51" s="66"/>
     </row>
-    <row r="52" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="125">
         <v>51</v>
       </c>
@@ -51302,17 +51293,17 @@
       <c r="O52" s="175">
         <v>0</v>
       </c>
-      <c r="P52" s="250" t="s">
+      <c r="P52" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q52" s="279" t="s">
+      <c r="Q52" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R52" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="125">
         <v>52</v>
       </c>
@@ -51358,17 +51349,17 @@
       <c r="O53" s="175">
         <v>0</v>
       </c>
-      <c r="P53" s="250" t="s">
+      <c r="P53" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q53" s="279" t="s">
+      <c r="Q53" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R53" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="125">
         <v>53</v>
       </c>
@@ -51414,17 +51405,17 @@
       <c r="O54" s="175">
         <v>0</v>
       </c>
-      <c r="P54" s="250" t="s">
+      <c r="P54" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q54" s="279" t="s">
+      <c r="Q54" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R54" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="125">
         <v>54</v>
       </c>
@@ -51470,17 +51461,17 @@
       <c r="O55" s="175">
         <v>0</v>
       </c>
-      <c r="P55" s="250" t="s">
+      <c r="P55" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q55" s="279" t="s">
+      <c r="Q55" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R55" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="125">
         <v>55</v>
       </c>
@@ -51526,17 +51517,17 @@
       <c r="O56" s="175">
         <v>0</v>
       </c>
-      <c r="P56" s="250" t="s">
+      <c r="P56" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q56" s="279" t="s">
+      <c r="Q56" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R56" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="125">
         <v>56</v>
       </c>
@@ -51582,17 +51573,17 @@
       <c r="O57" s="175">
         <v>0</v>
       </c>
-      <c r="P57" s="250" t="s">
+      <c r="P57" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q57" s="279" t="s">
+      <c r="Q57" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R57" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="125">
         <v>57</v>
       </c>
@@ -51638,17 +51629,17 @@
       <c r="O58" s="175">
         <v>0</v>
       </c>
-      <c r="P58" s="250" t="s">
+      <c r="P58" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q58" s="279" t="s">
+      <c r="Q58" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R58" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="125">
         <v>58</v>
       </c>
@@ -51694,17 +51685,17 @@
       <c r="O59" s="175">
         <v>0</v>
       </c>
-      <c r="P59" s="250" t="s">
+      <c r="P59" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q59" s="279" t="s">
+      <c r="Q59" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R59" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="125">
         <v>59</v>
       </c>
@@ -51750,17 +51741,17 @@
       <c r="O60" s="175">
         <v>0</v>
       </c>
-      <c r="P60" s="250" t="s">
+      <c r="P60" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q60" s="279" t="s">
+      <c r="Q60" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R60" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="125">
         <v>60</v>
       </c>
@@ -51806,17 +51797,17 @@
       <c r="O61" s="175">
         <v>0</v>
       </c>
-      <c r="P61" s="250" t="s">
+      <c r="P61" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q61" s="279" t="s">
+      <c r="Q61" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R61" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="125">
         <v>61</v>
       </c>
@@ -51862,17 +51853,17 @@
       <c r="O62" s="175">
         <v>0</v>
       </c>
-      <c r="P62" s="250" t="s">
+      <c r="P62" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q62" s="279" t="s">
+      <c r="Q62" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R62" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="125">
         <v>62</v>
       </c>
@@ -51918,17 +51909,17 @@
       <c r="O63" s="175">
         <v>0</v>
       </c>
-      <c r="P63" s="250" t="s">
+      <c r="P63" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q63" s="279" t="s">
+      <c r="Q63" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R63" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="125">
         <v>63</v>
       </c>
@@ -51974,17 +51965,17 @@
       <c r="O64" s="175">
         <v>0</v>
       </c>
-      <c r="P64" s="250" t="s">
+      <c r="P64" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q64" s="279" t="s">
+      <c r="Q64" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R64" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="125">
         <v>64</v>
       </c>
@@ -52030,17 +52021,17 @@
       <c r="O65" s="175">
         <v>0</v>
       </c>
-      <c r="P65" s="250" t="s">
+      <c r="P65" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q65" s="279" t="s">
+      <c r="Q65" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R65" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="125">
         <v>65</v>
       </c>
@@ -52086,17 +52077,17 @@
       <c r="O66" s="175">
         <v>0</v>
       </c>
-      <c r="P66" s="250" t="s">
+      <c r="P66" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q66" s="279" t="s">
+      <c r="Q66" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R66" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="125">
         <v>66</v>
       </c>
@@ -52142,17 +52133,17 @@
       <c r="O67" s="175">
         <v>0</v>
       </c>
-      <c r="P67" s="250" t="s">
+      <c r="P67" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q67" s="279" t="s">
+      <c r="Q67" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R67" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="125">
         <v>67</v>
       </c>
@@ -52198,17 +52189,17 @@
       <c r="O68" s="175">
         <v>0</v>
       </c>
-      <c r="P68" s="250" t="s">
+      <c r="P68" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q68" s="279" t="s">
+      <c r="Q68" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R68" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="125">
         <v>68</v>
       </c>
@@ -52254,17 +52245,17 @@
       <c r="O69" s="175">
         <v>0</v>
       </c>
-      <c r="P69" s="250" t="s">
+      <c r="P69" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q69" s="279" t="s">
+      <c r="Q69" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R69" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="125">
         <v>69</v>
       </c>
@@ -52310,17 +52301,17 @@
       <c r="O70" s="175">
         <v>0</v>
       </c>
-      <c r="P70" s="250" t="s">
+      <c r="P70" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q70" s="279" t="s">
+      <c r="Q70" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R70" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="125">
         <v>70</v>
       </c>
@@ -52366,17 +52357,17 @@
       <c r="O71" s="175">
         <v>0</v>
       </c>
-      <c r="P71" s="250" t="s">
+      <c r="P71" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q71" s="279" t="s">
+      <c r="Q71" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R71" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="125">
         <v>71</v>
       </c>
@@ -52422,17 +52413,17 @@
       <c r="O72" s="175">
         <v>0</v>
       </c>
-      <c r="P72" s="250" t="s">
+      <c r="P72" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q72" s="279" t="s">
+      <c r="Q72" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R72" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="125">
         <v>72</v>
       </c>
@@ -52478,125 +52469,125 @@
       <c r="O73" s="175">
         <v>0</v>
       </c>
-      <c r="P73" s="250" t="s">
+      <c r="P73" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q73" s="279" t="s">
+      <c r="Q73" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R73" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="261">
+    <row r="74" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="258">
         <v>73</v>
       </c>
-      <c r="B74" s="262" t="s">
+      <c r="B74" s="259" t="s">
         <v>953</v>
       </c>
-      <c r="C74" s="262" t="s">
+      <c r="C74" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="262" t="s">
+      <c r="D74" s="259" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="262" t="s">
+      <c r="E74" s="259" t="s">
         <v>116</v>
       </c>
-      <c r="F74" s="263" t="s">
+      <c r="F74" s="260" t="s">
         <v>123</v>
       </c>
-      <c r="G74" s="264">
+      <c r="G74" s="261">
         <v>-8.5546120000000005</v>
       </c>
-      <c r="H74" s="265">
+      <c r="H74" s="262">
         <v>125.57374299999999</v>
       </c>
-      <c r="I74" s="266">
+      <c r="I74" s="263">
         <v>6</v>
       </c>
-      <c r="J74" s="267" t="s">
+      <c r="J74" s="264" t="s">
         <v>726</v>
       </c>
-      <c r="K74" s="263" t="s">
+      <c r="K74" s="260" t="s">
         <v>728</v>
       </c>
-      <c r="L74" s="268" t="s">
+      <c r="L74" s="265" t="s">
         <v>1371</v>
       </c>
-      <c r="M74" s="269">
-        <v>0</v>
-      </c>
-      <c r="N74" s="269">
-        <v>0</v>
-      </c>
-      <c r="O74" s="269">
-        <v>0</v>
-      </c>
-      <c r="P74" s="250" t="s">
+      <c r="M74" s="266">
+        <v>0</v>
+      </c>
+      <c r="N74" s="266">
+        <v>0</v>
+      </c>
+      <c r="O74" s="266">
+        <v>0</v>
+      </c>
+      <c r="P74" s="247" t="s">
         <v>743</v>
       </c>
-      <c r="Q74" s="279" t="s">
+      <c r="Q74" s="276" t="s">
         <v>752</v>
       </c>
       <c r="R74" s="223" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="270">
+    <row r="75" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="267">
         <v>74</v>
       </c>
-      <c r="B75" s="271" t="s">
+      <c r="B75" s="268" t="s">
         <v>1465</v>
       </c>
-      <c r="C75" s="271" t="s">
+      <c r="C75" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="271" t="s">
+      <c r="D75" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="271" t="s">
+      <c r="E75" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="272" t="s">
+      <c r="F75" s="269" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="272">
+      <c r="G75" s="269">
         <v>-8.5399999999999991</v>
       </c>
-      <c r="H75" s="273">
+      <c r="H75" s="270">
         <v>125.68</v>
       </c>
-      <c r="I75" s="274">
+      <c r="I75" s="271">
         <v>15</v>
       </c>
-      <c r="J75" s="275" t="s">
+      <c r="J75" s="272" t="s">
         <v>726</v>
       </c>
-      <c r="K75" s="272" t="s">
+      <c r="K75" s="269" t="s">
         <v>742</v>
       </c>
-      <c r="L75" s="275" t="s">
+      <c r="L75" s="272" t="s">
         <v>1432</v>
       </c>
-      <c r="M75" s="274">
-        <v>0</v>
-      </c>
-      <c r="N75" s="274">
-        <v>0</v>
-      </c>
-      <c r="O75" s="274">
+      <c r="M75" s="271">
+        <v>0</v>
+      </c>
+      <c r="N75" s="271">
+        <v>0</v>
+      </c>
+      <c r="O75" s="271">
         <v>4</v>
       </c>
-      <c r="P75" s="276" t="s">
+      <c r="P75" s="273" t="s">
         <v>744</v>
       </c>
-      <c r="Q75" s="280" t="s">
+      <c r="Q75" s="277" t="s">
         <v>752</v>
       </c>
-      <c r="R75" s="275" t="s">
+      <c r="R75" s="272" t="s">
         <v>576</v>
       </c>
     </row>
@@ -52613,33 +52604,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K44"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.19921875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="44.09765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.796875" style="17" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" style="17" customWidth="1"/>
     <col min="5" max="6" width="21.59765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.296875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" style="25" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" style="13" customWidth="1"/>
     <col min="9" max="9" width="16" style="9" customWidth="1"/>
     <col min="10" max="10" width="13.59765625" style="8" customWidth="1"/>
     <col min="11" max="11" width="28.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.3984375" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="55" style="8" customWidth="1"/>
     <col min="17" max="17" width="38.3984375" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.59765625" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>520</v>
       </c>
@@ -52695,11 +52686,11 @@
         <v>717</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="79">
         <v>1</v>
       </c>
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="248" t="s">
         <v>1489</v>
       </c>
       <c r="C2" s="147" t="s">
@@ -52751,7 +52742,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -52797,7 +52788,7 @@
       <c r="O3" s="149">
         <v>7</v>
       </c>
-      <c r="P3" s="252" t="s">
+      <c r="P3" s="249" t="s">
         <v>1427</v>
       </c>
       <c r="Q3" s="217" t="s">
@@ -52807,7 +52798,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -52853,7 +52844,7 @@
       <c r="O4" s="38">
         <v>5</v>
       </c>
-      <c r="P4" s="252" t="s">
+      <c r="P4" s="249" t="s">
         <v>1427</v>
       </c>
       <c r="Q4" s="217" t="s">
@@ -52863,7 +52854,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -52909,7 +52900,7 @@
       <c r="O5" s="38">
         <v>4</v>
       </c>
-      <c r="P5" s="252" t="s">
+      <c r="P5" s="249" t="s">
         <v>1427</v>
       </c>
       <c r="Q5" s="217" t="s">
@@ -52919,7 +52910,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -52965,7 +52956,7 @@
       <c r="O6" s="38">
         <v>10</v>
       </c>
-      <c r="P6" s="252" t="s">
+      <c r="P6" s="249" t="s">
         <v>1427</v>
       </c>
       <c r="Q6" s="217" t="s">
@@ -52975,7 +52966,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -53021,7 +53012,7 @@
       <c r="O7" s="38">
         <v>6</v>
       </c>
-      <c r="P7" s="252" t="s">
+      <c r="P7" s="249" t="s">
         <v>1427</v>
       </c>
       <c r="Q7" s="217" t="s">
@@ -53031,7 +53022,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -53077,7 +53068,7 @@
       <c r="O8" s="38">
         <v>2</v>
       </c>
-      <c r="P8" s="252" t="s">
+      <c r="P8" s="249" t="s">
         <v>1427</v>
       </c>
       <c r="Q8" s="217" t="s">
@@ -53087,7 +53078,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="40">
         <v>8</v>
       </c>
@@ -53136,14 +53127,14 @@
       <c r="P9" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q9" s="243" t="s">
+      <c r="Q9" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R9" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="40">
         <v>9</v>
       </c>
@@ -53192,14 +53183,14 @@
       <c r="P10" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q10" s="243" t="s">
+      <c r="Q10" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R10" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -53248,14 +53239,14 @@
       <c r="P11" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q11" s="243" t="s">
+      <c r="Q11" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R11" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="40">
         <v>11</v>
       </c>
@@ -53304,14 +53295,14 @@
       <c r="P12" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q12" s="243" t="s">
+      <c r="Q12" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R12" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -53360,14 +53351,14 @@
       <c r="P13" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q13" s="243" t="s">
+      <c r="Q13" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R13" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -53416,14 +53407,14 @@
       <c r="P14" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q14" s="243" t="s">
+      <c r="Q14" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R14" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -53472,14 +53463,14 @@
       <c r="P15" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q15" s="243" t="s">
+      <c r="Q15" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R15" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -53528,14 +53519,14 @@
       <c r="P16" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q16" s="243" t="s">
+      <c r="Q16" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R16" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40">
         <v>16</v>
       </c>
@@ -53584,14 +53575,14 @@
       <c r="P17" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q17" s="243" t="s">
+      <c r="Q17" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R17" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="40">
         <v>17</v>
       </c>
@@ -53640,14 +53631,14 @@
       <c r="P18" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q18" s="243" t="s">
+      <c r="Q18" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R18" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40">
         <v>18</v>
       </c>
@@ -53696,14 +53687,14 @@
       <c r="P19" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q19" s="243" t="s">
+      <c r="Q19" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R19" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -53752,14 +53743,14 @@
       <c r="P20" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q20" s="243" t="s">
+      <c r="Q20" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R20" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="40">
         <v>20</v>
       </c>
@@ -53808,14 +53799,14 @@
       <c r="P21" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q21" s="243" t="s">
+      <c r="Q21" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R21" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -53864,14 +53855,14 @@
       <c r="P22" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q22" s="243" t="s">
+      <c r="Q22" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R22" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -53920,14 +53911,14 @@
       <c r="P23" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q23" s="243" t="s">
+      <c r="Q23" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R23" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -53976,14 +53967,14 @@
       <c r="P24" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q24" s="243" t="s">
+      <c r="Q24" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R24" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -54032,14 +54023,14 @@
       <c r="P25" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q25" s="243" t="s">
+      <c r="Q25" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R25" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40">
         <v>25</v>
       </c>
@@ -54088,14 +54079,14 @@
       <c r="P26" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q26" s="243" t="s">
+      <c r="Q26" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R26" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40">
         <v>26</v>
       </c>
@@ -54144,14 +54135,14 @@
       <c r="P27" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q27" s="243" t="s">
+      <c r="Q27" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R27" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="40">
         <v>27</v>
       </c>
@@ -54200,14 +54191,14 @@
       <c r="P28" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q28" s="243" t="s">
+      <c r="Q28" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R28" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="40">
         <v>28</v>
       </c>
@@ -54256,14 +54247,14 @@
       <c r="P29" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q29" s="243" t="s">
+      <c r="Q29" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R29" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="40">
         <v>29</v>
       </c>
@@ -54312,14 +54303,14 @@
       <c r="P30" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q30" s="243" t="s">
+      <c r="Q30" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R30" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="40">
         <v>30</v>
       </c>
@@ -54368,14 +54359,14 @@
       <c r="P31" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q31" s="243" t="s">
+      <c r="Q31" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R31" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="40">
         <v>31</v>
       </c>
@@ -54424,14 +54415,14 @@
       <c r="P32" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q32" s="243" t="s">
+      <c r="Q32" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R32" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="40">
         <v>32</v>
       </c>
@@ -54480,14 +54471,14 @@
       <c r="P33" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q33" s="243" t="s">
+      <c r="Q33" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R33" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="40">
         <v>33</v>
       </c>
@@ -54536,14 +54527,14 @@
       <c r="P34" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q34" s="243" t="s">
+      <c r="Q34" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R34" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
         <v>34</v>
       </c>
@@ -54592,14 +54583,14 @@
       <c r="P35" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q35" s="243" t="s">
+      <c r="Q35" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R35" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="40">
         <v>35</v>
       </c>
@@ -54648,14 +54639,14 @@
       <c r="P36" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q36" s="243" t="s">
+      <c r="Q36" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R36" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="40">
         <v>36</v>
       </c>
@@ -54704,14 +54695,14 @@
       <c r="P37" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q37" s="243" t="s">
+      <c r="Q37" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R37" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="40">
         <v>37</v>
       </c>
@@ -54760,14 +54751,14 @@
       <c r="P38" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q38" s="243" t="s">
+      <c r="Q38" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R38" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="40">
         <v>38</v>
       </c>
@@ -54816,14 +54807,14 @@
       <c r="P39" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q39" s="243" t="s">
+      <c r="Q39" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R39" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="40">
         <v>39</v>
       </c>
@@ -54872,14 +54863,14 @@
       <c r="P40" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q40" s="243" t="s">
+      <c r="Q40" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R40" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="40">
         <v>40</v>
       </c>
@@ -54928,14 +54919,14 @@
       <c r="P41" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q41" s="243" t="s">
+      <c r="Q41" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R41" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="40">
         <v>41</v>
       </c>
@@ -54984,14 +54975,14 @@
       <c r="P42" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q42" s="243" t="s">
+      <c r="Q42" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R42" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="40">
         <v>42</v>
       </c>
@@ -55040,14 +55031,14 @@
       <c r="P43" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q43" s="243" t="s">
+      <c r="Q43" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R43" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="40">
         <v>43</v>
       </c>
@@ -55096,14 +55087,14 @@
       <c r="P44" s="221" t="s">
         <v>1428</v>
       </c>
-      <c r="Q44" s="243" t="s">
+      <c r="Q44" s="240" t="s">
         <v>746</v>
       </c>
       <c r="R44" s="220" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="52">
         <v>44</v>
       </c>
@@ -55149,17 +55140,17 @@
       <c r="O45" s="145">
         <v>1</v>
       </c>
-      <c r="P45" s="245" t="s">
+      <c r="P45" s="242" t="s">
         <v>1429</v>
       </c>
-      <c r="Q45" s="246" t="s">
+      <c r="Q45" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R45" s="246" t="s">
+      <c r="R45" s="243" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="52">
         <v>45</v>
       </c>
@@ -55205,17 +55196,17 @@
       <c r="O46" s="145">
         <v>1</v>
       </c>
-      <c r="P46" s="245" t="s">
+      <c r="P46" s="242" t="s">
         <v>1429</v>
       </c>
-      <c r="Q46" s="246" t="s">
+      <c r="Q46" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R46" s="246" t="s">
+      <c r="R46" s="243" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="52">
         <v>46</v>
       </c>
@@ -55261,17 +55252,17 @@
       <c r="O47" s="145">
         <v>4</v>
       </c>
-      <c r="P47" s="245" t="s">
+      <c r="P47" s="242" t="s">
         <v>1429</v>
       </c>
-      <c r="Q47" s="246" t="s">
+      <c r="Q47" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R47" s="246" t="s">
+      <c r="R47" s="243" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="52">
         <v>47</v>
       </c>
@@ -55317,17 +55308,17 @@
       <c r="O48" s="145">
         <v>5</v>
       </c>
-      <c r="P48" s="245" t="s">
+      <c r="P48" s="242" t="s">
         <v>1429</v>
       </c>
-      <c r="Q48" s="246" t="s">
+      <c r="Q48" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R48" s="246" t="s">
+      <c r="R48" s="243" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="52">
         <v>48</v>
       </c>
@@ -55373,17 +55364,17 @@
       <c r="O49" s="145">
         <v>4</v>
       </c>
-      <c r="P49" s="245" t="s">
+      <c r="P49" s="242" t="s">
         <v>1429</v>
       </c>
-      <c r="Q49" s="246" t="s">
+      <c r="Q49" s="243" t="s">
         <v>718</v>
       </c>
-      <c r="R49" s="246" t="s">
+      <c r="R49" s="243" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="52">
         <v>49</v>
       </c>

--- a/db_initializer/facilities/tl_health_facilities_edited.xlsx
+++ b/db_initializer/facilities/tl_health_facilities_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericksoncruz/Documents/RIMES/superset/db_initializer/facilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0BE0E1-0BBF-6847-B349-022E07910FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDAE918-1092-7047-BA89-9B36B79B0281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TL Health Facilities" sheetId="22" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5901" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5901" uniqueCount="1502">
   <si>
     <t>Oe-Cusse</t>
   </si>
@@ -15307,9 +15307,6 @@
 Mini Laboratory
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Post </t>
   </si>
   <si>
     <r>
@@ -24186,19 +24183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -24222,7 +24207,19 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -24550,8 +24547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A42BD1B-2387-48F2-8274-5DB52C62818F}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -24563,14 +24560,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="286" t="s">
         <v>1358</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="283" t="s">
@@ -24659,12 +24656,12 @@
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="292" t="s">
+      <c r="K8" s="288" t="s">
         <v>741</v>
       </c>
-      <c r="L8" s="292"/>
-      <c r="M8" s="292"/>
-      <c r="N8" s="292"/>
+      <c r="L8" s="288"/>
+      <c r="M8" s="288"/>
+      <c r="N8" s="288"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="283"/>
@@ -24677,12 +24674,12 @@
       <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="K9" s="293" t="s">
+      <c r="K9" s="289" t="s">
         <v>732</v>
       </c>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
+      <c r="L9" s="289"/>
+      <c r="M9" s="289"/>
+      <c r="N9" s="289"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="283"/>
@@ -24695,12 +24692,12 @@
       <c r="F10" s="6">
         <v>22</v>
       </c>
-      <c r="K10" s="294" t="s">
+      <c r="K10" s="290" t="s">
         <v>730</v>
       </c>
-      <c r="L10" s="294"/>
-      <c r="M10" s="294"/>
-      <c r="N10" s="294"/>
+      <c r="L10" s="290"/>
+      <c r="M10" s="290"/>
+      <c r="N10" s="290"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="283"/>
@@ -24713,12 +24710,12 @@
       <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="K11" s="295" t="s">
+      <c r="K11" s="291" t="s">
         <v>1360</v>
       </c>
-      <c r="L11" s="295"/>
-      <c r="M11" s="295"/>
-      <c r="N11" s="295"/>
+      <c r="L11" s="291"/>
+      <c r="M11" s="291"/>
+      <c r="N11" s="291"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="283" t="s">
@@ -24733,12 +24730,12 @@
       <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="296" t="s">
+      <c r="K12" s="292" t="s">
         <v>721</v>
       </c>
-      <c r="L12" s="296"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="296"/>
+      <c r="L12" s="292"/>
+      <c r="M12" s="292"/>
+      <c r="N12" s="292"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="283"/>
@@ -24789,12 +24786,12 @@
       <c r="F15" s="6">
         <v>9</v>
       </c>
-      <c r="K15" s="297" t="s">
+      <c r="K15" s="285" t="s">
         <v>1355</v>
       </c>
-      <c r="L15" s="297"/>
-      <c r="M15" s="297"/>
-      <c r="N15" s="297"/>
+      <c r="L15" s="285"/>
+      <c r="M15" s="285"/>
+      <c r="N15" s="285"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="283"/>
@@ -24807,12 +24804,12 @@
       <c r="F16" s="6">
         <v>28</v>
       </c>
-      <c r="K16" s="288" t="s">
+      <c r="K16" s="296" t="s">
         <v>1356</v>
       </c>
-      <c r="L16" s="288"/>
-      <c r="M16" s="288"/>
-      <c r="N16" s="288"/>
+      <c r="L16" s="296"/>
+      <c r="M16" s="296"/>
+      <c r="N16" s="296"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="283"/>
@@ -24825,12 +24822,12 @@
       <c r="F17" s="6">
         <v>3</v>
       </c>
-      <c r="K17" s="289" t="s">
+      <c r="K17" s="297" t="s">
         <v>1357</v>
       </c>
-      <c r="L17" s="289"/>
-      <c r="M17" s="289"/>
-      <c r="N17" s="289"/>
+      <c r="L17" s="297"/>
+      <c r="M17" s="297"/>
+      <c r="N17" s="297"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="283"/>
@@ -24857,7 +24854,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="285" t="s">
+      <c r="A20" s="293" t="s">
         <v>1363</v>
       </c>
       <c r="B20" s="284" t="s">
@@ -24871,7 +24868,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="286"/>
+      <c r="A21" s="294"/>
       <c r="B21" s="284" t="s">
         <v>721</v>
       </c>
@@ -24883,7 +24880,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="286"/>
+      <c r="A22" s="294"/>
       <c r="B22" s="284" t="s">
         <v>723</v>
       </c>
@@ -24895,7 +24892,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="286"/>
+      <c r="A23" s="294"/>
       <c r="B23" s="284" t="s">
         <v>1355</v>
       </c>
@@ -24907,7 +24904,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="287"/>
+      <c r="A24" s="295"/>
       <c r="B24" s="284" t="s">
         <v>1356</v>
       </c>
@@ -24919,7 +24916,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="285" t="s">
+      <c r="A25" s="293" t="s">
         <v>1364</v>
       </c>
       <c r="B25" s="284" t="s">
@@ -24933,7 +24930,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="286"/>
+      <c r="A26" s="294"/>
       <c r="B26" s="284" t="s">
         <v>721</v>
       </c>
@@ -24945,7 +24942,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="286"/>
+      <c r="A27" s="294"/>
       <c r="B27" s="284" t="s">
         <v>723</v>
       </c>
@@ -24957,7 +24954,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="287"/>
+      <c r="A28" s="295"/>
       <c r="B28" s="284" t="s">
         <v>1356</v>
       </c>
@@ -25475,6 +25472,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A63"/>
@@ -25491,81 +25563,6 @@
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25661,7 +25658,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>23</v>
@@ -25688,7 +25685,7 @@
         <v>725</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>1354</v>
@@ -25703,13 +25700,13 @@
         <v>11</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="Q2" s="179" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="179" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -25759,13 +25756,13 @@
         <v>7</v>
       </c>
       <c r="P3" s="218" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q3" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -25815,13 +25812,13 @@
         <v>13</v>
       </c>
       <c r="P4" s="218" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q4" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -25871,13 +25868,13 @@
         <v>16</v>
       </c>
       <c r="P5" s="218" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q5" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -25927,13 +25924,13 @@
         <v>6</v>
       </c>
       <c r="P6" s="218" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q6" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -25983,13 +25980,13 @@
         <v>9</v>
       </c>
       <c r="P7" s="218" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q7" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R7" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -26039,7 +26036,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q8" s="220" t="s">
         <v>718</v>
@@ -26095,7 +26092,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q9" s="220" t="s">
         <v>718</v>
@@ -26151,7 +26148,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q10" s="220" t="s">
         <v>718</v>
@@ -26203,7 +26200,7 @@
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
       <c r="P11" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q11" s="215" t="s">
         <v>718</v>
@@ -26259,7 +26256,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q12" s="220" t="s">
         <v>718</v>
@@ -26315,7 +26312,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q13" s="220" t="s">
         <v>718</v>
@@ -26371,7 +26368,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q14" s="220" t="s">
         <v>718</v>
@@ -26427,7 +26424,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q15" s="220" t="s">
         <v>718</v>
@@ -26483,7 +26480,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q16" s="220" t="s">
         <v>718</v>
@@ -26539,7 +26536,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q17" s="220" t="s">
         <v>718</v>
@@ -26595,7 +26592,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q18" s="220" t="s">
         <v>718</v>
@@ -26651,7 +26648,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q19" s="220" t="s">
         <v>718</v>
@@ -26707,7 +26704,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q20" s="220" t="s">
         <v>718</v>
@@ -26763,7 +26760,7 @@
         <v>2</v>
       </c>
       <c r="P21" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q21" s="220" t="s">
         <v>718</v>
@@ -26819,7 +26816,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q22" s="220" t="s">
         <v>718</v>
@@ -26875,7 +26872,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q23" s="220" t="s">
         <v>718</v>
@@ -26931,7 +26928,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q24" s="220" t="s">
         <v>718</v>
@@ -26987,7 +26984,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q25" s="220" t="s">
         <v>718</v>
@@ -27043,7 +27040,7 @@
         <v>6</v>
       </c>
       <c r="P26" s="57" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="Q26" s="68" t="s">
         <v>718</v>
@@ -27084,10 +27081,10 @@
         <v>725</v>
       </c>
       <c r="K27" s="182" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="L27" s="182" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="M27" s="185">
         <v>0</v>
@@ -27099,7 +27096,7 @@
         <v>15</v>
       </c>
       <c r="P27" s="251" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="Q27" s="186" t="s">
         <v>736</v>
@@ -27205,7 +27202,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="188" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C2" s="147" t="s">
         <v>306</v>
@@ -27232,7 +27229,7 @@
         <v>725</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>1354</v>
@@ -27247,13 +27244,13 @@
         <v>29</v>
       </c>
       <c r="P2" s="188" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -27303,13 +27300,13 @@
         <v>4</v>
       </c>
       <c r="P3" s="218" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Q3" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -27359,13 +27356,13 @@
         <v>10</v>
       </c>
       <c r="P4" s="218" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Q4" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -27373,13 +27370,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>306</v>
       </c>
       <c r="D5" s="280" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E5" s="88" t="s">
         <v>315</v>
@@ -27415,13 +27412,13 @@
         <v>13</v>
       </c>
       <c r="P5" s="218" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Q5" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -27471,7 +27468,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q6" s="220" t="s">
         <v>718</v>
@@ -27527,7 +27524,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q7" s="220" t="s">
         <v>718</v>
@@ -27583,7 +27580,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q8" s="220" t="s">
         <v>718</v>
@@ -27639,7 +27636,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q9" s="220" t="s">
         <v>718</v>
@@ -27695,7 +27692,7 @@
         <v>6</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q10" s="220" t="s">
         <v>718</v>
@@ -27751,7 +27748,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q11" s="220" t="s">
         <v>718</v>
@@ -27807,7 +27804,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q12" s="220" t="s">
         <v>718</v>
@@ -27863,7 +27860,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q13" s="220" t="s">
         <v>718</v>
@@ -27919,7 +27916,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q14" s="220" t="s">
         <v>718</v>
@@ -27975,7 +27972,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q15" s="220" t="s">
         <v>718</v>
@@ -28031,7 +28028,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q16" s="220" t="s">
         <v>718</v>
@@ -28087,7 +28084,7 @@
         <v>4</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q17" s="220" t="s">
         <v>718</v>
@@ -28139,7 +28136,7 @@
       <c r="N18" s="72"/>
       <c r="O18" s="72"/>
       <c r="P18" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q18" s="220" t="s">
         <v>718</v>
@@ -28195,7 +28192,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q19" s="220" t="s">
         <v>718</v>
@@ -28251,7 +28248,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q20" s="220" t="s">
         <v>718</v>
@@ -28307,7 +28304,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q21" s="220" t="s">
         <v>718</v>
@@ -28363,7 +28360,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q22" s="220" t="s">
         <v>718</v>
@@ -28419,7 +28416,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q23" s="220" t="s">
         <v>718</v>
@@ -28475,7 +28472,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q24" s="220" t="s">
         <v>718</v>
@@ -28531,7 +28528,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q25" s="220" t="s">
         <v>718</v>
@@ -28587,7 +28584,7 @@
         <v>3</v>
       </c>
       <c r="P26" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q26" s="220" t="s">
         <v>718</v>
@@ -28643,7 +28640,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q27" s="220" t="s">
         <v>718</v>
@@ -28699,7 +28696,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="221" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q28" s="220" t="s">
         <v>718</v>
@@ -28713,7 +28710,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="150" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C29" s="150" t="s">
         <v>306</v>
@@ -28811,7 +28808,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="242" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Q30" s="243" t="s">
         <v>718</v>
@@ -28867,7 +28864,7 @@
         <v>2</v>
       </c>
       <c r="P31" s="242" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Q31" s="243" t="s">
         <v>718</v>
@@ -29029,7 +29026,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="248" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C2" s="281" t="s">
         <v>1367</v>
@@ -29056,7 +29053,7 @@
         <v>725</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>1354</v>
@@ -29071,13 +29068,13 @@
         <v>100</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="Q2" s="188" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -29127,13 +29124,13 @@
         <v>3</v>
       </c>
       <c r="P3" s="218" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="Q3" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -29183,13 +29180,13 @@
         <v>8</v>
       </c>
       <c r="P4" s="218" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="Q4" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -29239,13 +29236,13 @@
         <v>2</v>
       </c>
       <c r="P5" s="218" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="Q5" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -29295,13 +29292,13 @@
         <v>5</v>
       </c>
       <c r="P6" s="218" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="Q6" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -29351,7 +29348,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q7" s="220" t="s">
         <v>718</v>
@@ -29407,7 +29404,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q8" s="220" t="s">
         <v>718</v>
@@ -29463,7 +29460,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q9" s="220" t="s">
         <v>718</v>
@@ -29519,7 +29516,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q10" s="220" t="s">
         <v>718</v>
@@ -29575,7 +29572,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q11" s="220" t="s">
         <v>718</v>
@@ -29631,7 +29628,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q12" s="220" t="s">
         <v>718</v>
@@ -29687,7 +29684,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q13" s="220" t="s">
         <v>718</v>
@@ -29743,7 +29740,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q14" s="220" t="s">
         <v>718</v>
@@ -29799,7 +29796,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q15" s="220" t="s">
         <v>718</v>
@@ -29855,7 +29852,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q16" s="220" t="s">
         <v>718</v>
@@ -29911,7 +29908,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q17" s="220" t="s">
         <v>718</v>
@@ -29967,7 +29964,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q18" s="220" t="s">
         <v>718</v>
@@ -30023,7 +30020,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q19" s="220" t="s">
         <v>718</v>
@@ -30079,7 +30076,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q20" s="220" t="s">
         <v>718</v>
@@ -30135,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q21" s="220" t="s">
         <v>718</v>
@@ -30191,7 +30188,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q22" s="220" t="s">
         <v>718</v>
@@ -30247,7 +30244,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q23" s="220" t="s">
         <v>718</v>
@@ -30303,7 +30300,7 @@
         <v>2</v>
       </c>
       <c r="P24" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q24" s="220" t="s">
         <v>718</v>
@@ -30359,7 +30356,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q25" s="220" t="s">
         <v>718</v>
@@ -30415,7 +30412,7 @@
         <v>3</v>
       </c>
       <c r="P26" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q26" s="220" t="s">
         <v>718</v>
@@ -30471,7 +30468,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q27" s="220" t="s">
         <v>718</v>
@@ -30527,7 +30524,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q28" s="220" t="s">
         <v>718</v>
@@ -30583,7 +30580,7 @@
         <v>3</v>
       </c>
       <c r="P29" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q29" s="220" t="s">
         <v>718</v>
@@ -30639,7 +30636,7 @@
         <v>2</v>
       </c>
       <c r="P30" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q30" s="220" t="s">
         <v>718</v>
@@ -30695,7 +30692,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q31" s="220" t="s">
         <v>718</v>
@@ -30751,7 +30748,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q32" s="220" t="s">
         <v>718</v>
@@ -30807,7 +30804,7 @@
         <v>2</v>
       </c>
       <c r="P33" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q33" s="220" t="s">
         <v>718</v>
@@ -30863,7 +30860,7 @@
         <v>2</v>
       </c>
       <c r="P34" s="221" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q34" s="220" t="s">
         <v>718</v>
@@ -30919,7 +30916,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="194" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="Q35" s="195" t="s">
         <v>718</v>
@@ -30975,7 +30972,7 @@
         <v>2</v>
       </c>
       <c r="P36" s="219" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q36" s="243" t="s">
         <v>718</v>
@@ -31031,7 +31028,7 @@
         <v>2</v>
       </c>
       <c r="P37" s="219" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q37" s="243" t="s">
         <v>718</v>
@@ -31087,7 +31084,7 @@
         <v>2</v>
       </c>
       <c r="P38" s="219" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q38" s="68" t="s">
         <v>718</v>
@@ -31239,13 +31236,13 @@
         <v>1</v>
       </c>
       <c r="P2" s="218" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="Q2" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -31253,7 +31250,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C3" s="88" t="s">
         <v>1368</v>
@@ -31295,13 +31292,13 @@
         <v>9</v>
       </c>
       <c r="P3" s="218" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="Q3" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -31351,13 +31348,13 @@
         <v>4</v>
       </c>
       <c r="P4" s="218" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="Q4" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -31407,7 +31404,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q5" s="238" t="s">
         <v>718</v>
@@ -31463,7 +31460,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q6" s="238" t="s">
         <v>718</v>
@@ -31519,7 +31516,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q7" s="238" t="s">
         <v>718</v>
@@ -31575,7 +31572,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q8" s="238" t="s">
         <v>718</v>
@@ -31631,7 +31628,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q9" s="238" t="s">
         <v>718</v>
@@ -31687,7 +31684,7 @@
         <v>2</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q10" s="238" t="s">
         <v>718</v>
@@ -31743,7 +31740,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q11" s="238" t="s">
         <v>718</v>
@@ -31799,7 +31796,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q12" s="238" t="s">
         <v>718</v>
@@ -31855,7 +31852,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q13" s="238" t="s">
         <v>718</v>
@@ -31911,7 +31908,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q14" s="238" t="s">
         <v>718</v>
@@ -31925,7 +31922,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>1368</v>
@@ -31934,7 +31931,7 @@
         <v>1368</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>444</v>
@@ -31967,7 +31964,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q15" s="238" t="s">
         <v>718</v>
@@ -32023,7 +32020,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q16" s="238" t="s">
         <v>718</v>
@@ -32079,7 +32076,7 @@
         <v>2</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q17" s="238" t="s">
         <v>718</v>
@@ -32135,7 +32132,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q18" s="238" t="s">
         <v>718</v>
@@ -32191,7 +32188,7 @@
         <v>4</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q19" s="238" t="s">
         <v>718</v>
@@ -32247,7 +32244,7 @@
         <v>3</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q20" s="238" t="s">
         <v>718</v>
@@ -32303,7 +32300,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q21" s="238" t="s">
         <v>718</v>
@@ -32359,7 +32356,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q22" s="238" t="s">
         <v>718</v>
@@ -32382,7 +32379,7 @@
         <v>423</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F23" s="42" t="s">
         <v>457</v>
@@ -32415,7 +32412,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q23" s="238" t="s">
         <v>718</v>
@@ -32429,7 +32426,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C24" s="93" t="s">
         <v>1368</v>
@@ -32438,7 +32435,7 @@
         <v>423</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F24" s="42" t="s">
         <v>458</v>
@@ -32471,7 +32468,7 @@
         <v>3</v>
       </c>
       <c r="P24" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q24" s="238" t="s">
         <v>718</v>
@@ -32527,7 +32524,7 @@
         <v>3</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q25" s="238" t="s">
         <v>718</v>
@@ -32583,7 +32580,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q26" s="238" t="s">
         <v>718</v>
@@ -32639,7 +32636,7 @@
         <v>3</v>
       </c>
       <c r="P27" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q27" s="238" t="s">
         <v>718</v>
@@ -32695,7 +32692,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q28" s="238" t="s">
         <v>718</v>
@@ -32751,7 +32748,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q29" s="238" t="s">
         <v>718</v>
@@ -32807,7 +32804,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q30" s="238" t="s">
         <v>718</v>
@@ -32863,7 +32860,7 @@
         <v>3</v>
       </c>
       <c r="P31" s="221" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="Q31" s="238" t="s">
         <v>718</v>
@@ -32919,7 +32916,7 @@
         <v>2</v>
       </c>
       <c r="P32" s="57" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="Q32" s="139" t="s">
         <v>718</v>
@@ -32975,7 +32972,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="242" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="Q33" s="58" t="s">
         <v>718</v>
@@ -33031,7 +33028,7 @@
         <v>13</v>
       </c>
       <c r="P34" s="219" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="Q34" s="58" t="s">
         <v>718</v>
@@ -33184,10 +33181,10 @@
         <v>726</v>
       </c>
       <c r="K37" s="182" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L37" s="182" t="s">
         <v>1449</v>
-      </c>
-      <c r="L37" s="182" t="s">
-        <v>1450</v>
       </c>
       <c r="M37" s="185">
         <v>1</v>
@@ -33304,7 +33301,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="205" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C2" s="205" t="s">
         <v>0</v>
@@ -33346,13 +33343,13 @@
         <v>60</v>
       </c>
       <c r="P2" s="102" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="Q2" s="103" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="103" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -33402,13 +33399,13 @@
         <v>10</v>
       </c>
       <c r="P3" s="218" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q3" s="254" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="254" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -33458,13 +33455,13 @@
         <v>10</v>
       </c>
       <c r="P4" s="218" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q4" s="254" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="254" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -33514,13 +33511,13 @@
         <v>4</v>
       </c>
       <c r="P5" s="218" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q5" s="254" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="254" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -33570,13 +33567,13 @@
         <v>4</v>
       </c>
       <c r="P6" s="218" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q6" s="254" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="254" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -33626,13 +33623,13 @@
         <v>10</v>
       </c>
       <c r="P7" s="218" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q7" s="254" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R7" s="254" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -33682,7 +33679,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q8" s="220" t="s">
         <v>718</v>
@@ -33738,7 +33735,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q9" s="220" t="s">
         <v>718</v>
@@ -33794,7 +33791,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q10" s="220" t="s">
         <v>718</v>
@@ -33850,7 +33847,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q11" s="220" t="s">
         <v>718</v>
@@ -33906,7 +33903,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q12" s="220" t="s">
         <v>718</v>
@@ -33962,7 +33959,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q13" s="220" t="s">
         <v>718</v>
@@ -34018,7 +34015,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q14" s="220" t="s">
         <v>718</v>
@@ -34074,7 +34071,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q15" s="220" t="s">
         <v>718</v>
@@ -34130,7 +34127,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q16" s="220" t="s">
         <v>718</v>
@@ -34186,7 +34183,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q17" s="220" t="s">
         <v>718</v>
@@ -34242,7 +34239,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q18" s="220" t="s">
         <v>718</v>
@@ -34298,7 +34295,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q19" s="220" t="s">
         <v>718</v>
@@ -34354,7 +34351,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q20" s="220" t="s">
         <v>718</v>
@@ -34410,7 +34407,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q21" s="220" t="s">
         <v>718</v>
@@ -34466,7 +34463,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q22" s="220" t="s">
         <v>718</v>
@@ -34522,7 +34519,7 @@
         <v>4</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q23" s="220" t="s">
         <v>718</v>
@@ -34578,7 +34575,7 @@
         <v>3</v>
       </c>
       <c r="P24" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q24" s="220" t="s">
         <v>718</v>
@@ -34634,7 +34631,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q25" s="220" t="s">
         <v>718</v>
@@ -34690,7 +34687,7 @@
         <v>2</v>
       </c>
       <c r="P26" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q26" s="220" t="s">
         <v>718</v>
@@ -34746,7 +34743,7 @@
         <v>2</v>
       </c>
       <c r="P27" s="221" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="Q27" s="220" t="s">
         <v>718</v>
@@ -34973,7 +34970,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="248" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>1198</v>
@@ -35000,7 +34997,7 @@
         <v>725</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>720</v>
@@ -35015,13 +35012,13 @@
         <v>24</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -35071,13 +35068,13 @@
         <v>4</v>
       </c>
       <c r="P3" s="218" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="Q3" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -35127,13 +35124,13 @@
         <v>9</v>
       </c>
       <c r="P4" s="218" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="Q4" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -35183,13 +35180,13 @@
         <v>12</v>
       </c>
       <c r="P5" s="218" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="Q5" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -35239,13 +35236,13 @@
         <v>5</v>
       </c>
       <c r="P6" s="218" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="Q6" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -37592,7 +37589,7 @@
         <v>3</v>
       </c>
       <c r="P48" s="134" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="Q48" s="212" t="s">
         <v>718</v>
@@ -37667,8 +37664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -37782,7 +37779,7 @@
         <v>725</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="L2" s="28" t="s">
         <v>1354</v>
@@ -37800,10 +37797,10 @@
         <v>1381</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="31" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -37856,10 +37853,10 @@
         <v>1382</v>
       </c>
       <c r="Q3" s="216" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="216" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -37912,10 +37909,10 @@
         <v>1382</v>
       </c>
       <c r="Q4" s="216" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="216" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -37968,10 +37965,10 @@
         <v>1382</v>
       </c>
       <c r="Q5" s="216" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="216" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -38861,7 +38858,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="57" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="Q21" s="58" t="s">
         <v>718</v>
@@ -38942,7 +38939,6 @@
     <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:R22" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -38952,7 +38948,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R1" sqref="A1:R1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -39084,10 +39080,10 @@
         <v>1384</v>
       </c>
       <c r="Q2" s="226" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="226" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -39122,7 +39118,7 @@
         <v>725</v>
       </c>
       <c r="K3" s="224" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>1354</v>
@@ -39140,10 +39136,10 @@
         <v>1385</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="31" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -39196,10 +39192,10 @@
         <v>734</v>
       </c>
       <c r="Q4" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -39252,10 +39248,10 @@
         <v>734</v>
       </c>
       <c r="Q5" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -39308,10 +39304,10 @@
         <v>734</v>
       </c>
       <c r="Q6" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -40593,7 +40589,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="219" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="Q29" s="58" t="s">
         <v>718</v>
@@ -40649,7 +40645,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="219" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="Q30" s="58" t="s">
         <v>718</v>
@@ -40705,7 +40701,7 @@
         <v>2</v>
       </c>
       <c r="P31" s="67" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="Q31" s="58" t="s">
         <v>718</v>
@@ -40878,10 +40874,10 @@
         <v>1387</v>
       </c>
       <c r="Q2" s="90" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="90" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41249,8 +41245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -41383,7 +41379,7 @@
         <v>1372</v>
       </c>
       <c r="R2" s="239" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41439,7 +41435,7 @@
         <v>1372</v>
       </c>
       <c r="R3" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41495,7 +41491,7 @@
         <v>1372</v>
       </c>
       <c r="R4" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41551,7 +41547,7 @@
         <v>1372</v>
       </c>
       <c r="R5" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41607,7 +41603,7 @@
         <v>1372</v>
       </c>
       <c r="R6" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41663,7 +41659,7 @@
         <v>1372</v>
       </c>
       <c r="R7" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41719,7 +41715,7 @@
         <v>1372</v>
       </c>
       <c r="R8" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41775,7 +41771,7 @@
         <v>1372</v>
       </c>
       <c r="R9" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41831,7 +41827,7 @@
         <v>1372</v>
       </c>
       <c r="R10" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -41887,7 +41883,7 @@
         <v>1372</v>
       </c>
       <c r="R11" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44028,8 +44024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -44084,7 +44080,7 @@
       <c r="J1" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="237" t="s">
         <v>709</v>
       </c>
       <c r="L1" s="10" t="s">
@@ -44114,7 +44110,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>231</v>
@@ -44156,13 +44152,13 @@
         <v>105</v>
       </c>
       <c r="P2" s="86" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q2" s="226" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="226" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44212,13 +44208,13 @@
         <v>16</v>
       </c>
       <c r="P3" s="218" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q3" s="218" t="s">
         <v>1396</v>
       </c>
-      <c r="Q3" s="218" t="s">
-        <v>1397</v>
-      </c>
       <c r="R3" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44268,13 +44264,13 @@
         <v>6</v>
       </c>
       <c r="P4" s="218" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q4" s="218" t="s">
         <v>1396</v>
       </c>
-      <c r="Q4" s="218" t="s">
-        <v>1397</v>
-      </c>
       <c r="R4" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44324,13 +44320,13 @@
         <v>8</v>
       </c>
       <c r="P5" s="218" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q5" s="218" t="s">
         <v>1396</v>
       </c>
-      <c r="Q5" s="218" t="s">
-        <v>1397</v>
-      </c>
       <c r="R5" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44338,13 +44334,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E6" s="35" t="s">
         <v>241</v>
@@ -44380,13 +44376,13 @@
         <v>4</v>
       </c>
       <c r="P6" s="218" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q6" s="218" t="s">
         <v>1396</v>
       </c>
-      <c r="Q6" s="218" t="s">
-        <v>1397</v>
-      </c>
       <c r="R6" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44436,13 +44432,13 @@
         <v>8</v>
       </c>
       <c r="P7" s="218" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q7" s="218" t="s">
         <v>1396</v>
       </c>
-      <c r="Q7" s="218" t="s">
-        <v>1397</v>
-      </c>
       <c r="R7" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44492,13 +44488,13 @@
         <v>4</v>
       </c>
       <c r="P8" s="218" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q8" s="218" t="s">
         <v>1396</v>
       </c>
-      <c r="Q8" s="218" t="s">
-        <v>1397</v>
-      </c>
       <c r="R8" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44548,13 +44544,13 @@
         <v>4</v>
       </c>
       <c r="P9" s="218" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q9" s="218" t="s">
         <v>1396</v>
       </c>
-      <c r="Q9" s="218" t="s">
-        <v>1397</v>
-      </c>
       <c r="R9" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -44589,7 +44585,7 @@
         <v>725</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L10" s="48" t="s">
         <v>724</v>
@@ -44604,7 +44600,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q10" s="227" t="s">
         <v>718</v>
@@ -44645,7 +44641,7 @@
         <v>725</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L11" s="48" t="s">
         <v>724</v>
@@ -44660,7 +44656,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q11" s="227" t="s">
         <v>718</v>
@@ -44701,7 +44697,7 @@
         <v>725</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L12" s="48" t="s">
         <v>724</v>
@@ -44716,7 +44712,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q12" s="227" t="s">
         <v>718</v>
@@ -44757,7 +44753,7 @@
         <v>725</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L13" s="48" t="s">
         <v>724</v>
@@ -44772,7 +44768,7 @@
         <v>4</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q13" s="227" t="s">
         <v>718</v>
@@ -44813,7 +44809,7 @@
         <v>725</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L14" s="48" t="s">
         <v>724</v>
@@ -44828,7 +44824,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q14" s="227" t="s">
         <v>718</v>
@@ -44869,7 +44865,7 @@
         <v>725</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L15" s="48" t="s">
         <v>724</v>
@@ -44884,7 +44880,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q15" s="227" t="s">
         <v>718</v>
@@ -44925,7 +44921,7 @@
         <v>725</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L16" s="48" t="s">
         <v>724</v>
@@ -44940,7 +44936,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q16" s="227" t="s">
         <v>718</v>
@@ -44981,7 +44977,7 @@
         <v>725</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L17" s="48" t="s">
         <v>724</v>
@@ -44996,7 +44992,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q17" s="227" t="s">
         <v>718</v>
@@ -45037,7 +45033,7 @@
         <v>725</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L18" s="48" t="s">
         <v>724</v>
@@ -45052,7 +45048,7 @@
         <v>5</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q18" s="227" t="s">
         <v>718</v>
@@ -45093,7 +45089,7 @@
         <v>725</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L19" s="48" t="s">
         <v>724</v>
@@ -45108,7 +45104,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q19" s="227" t="s">
         <v>718</v>
@@ -45149,7 +45145,7 @@
         <v>725</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L20" s="48" t="s">
         <v>724</v>
@@ -45164,7 +45160,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q20" s="227" t="s">
         <v>718</v>
@@ -45205,7 +45201,7 @@
         <v>725</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L21" s="48" t="s">
         <v>724</v>
@@ -45218,7 +45214,7 @@
       </c>
       <c r="O21" s="45"/>
       <c r="P21" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q21" s="227" t="s">
         <v>718</v>
@@ -45259,7 +45255,7 @@
         <v>725</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L22" s="48" t="s">
         <v>724</v>
@@ -45274,7 +45270,7 @@
         <v>3</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q22" s="227" t="s">
         <v>718</v>
@@ -45315,7 +45311,7 @@
         <v>725</v>
       </c>
       <c r="K23" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L23" s="48" t="s">
         <v>724</v>
@@ -45330,7 +45326,7 @@
         <v>3</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q23" s="227" t="s">
         <v>718</v>
@@ -45371,7 +45367,7 @@
         <v>725</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L24" s="48" t="s">
         <v>724</v>
@@ -45386,7 +45382,7 @@
         <v>3</v>
       </c>
       <c r="P24" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q24" s="227" t="s">
         <v>718</v>
@@ -45427,7 +45423,7 @@
         <v>725</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L25" s="48" t="s">
         <v>724</v>
@@ -45442,7 +45438,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q25" s="227" t="s">
         <v>718</v>
@@ -45483,7 +45479,7 @@
         <v>725</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L26" s="48" t="s">
         <v>724</v>
@@ -45498,7 +45494,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q26" s="227" t="s">
         <v>718</v>
@@ -45539,7 +45535,7 @@
         <v>725</v>
       </c>
       <c r="K27" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L27" s="48" t="s">
         <v>724</v>
@@ -45554,7 +45550,7 @@
         <v>2</v>
       </c>
       <c r="P27" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q27" s="227" t="s">
         <v>718</v>
@@ -45595,7 +45591,7 @@
         <v>725</v>
       </c>
       <c r="K28" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L28" s="48" t="s">
         <v>724</v>
@@ -45610,7 +45606,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q28" s="227" t="s">
         <v>718</v>
@@ -45651,7 +45647,7 @@
         <v>725</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L29" s="48" t="s">
         <v>724</v>
@@ -45666,7 +45662,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q29" s="227" t="s">
         <v>718</v>
@@ -45707,7 +45703,7 @@
         <v>725</v>
       </c>
       <c r="K30" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L30" s="48" t="s">
         <v>724</v>
@@ -45722,7 +45718,7 @@
         <v>4</v>
       </c>
       <c r="P30" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q30" s="227" t="s">
         <v>718</v>
@@ -45763,7 +45759,7 @@
         <v>725</v>
       </c>
       <c r="K31" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L31" s="48" t="s">
         <v>724</v>
@@ -45778,7 +45774,7 @@
         <v>3</v>
       </c>
       <c r="P31" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q31" s="227" t="s">
         <v>718</v>
@@ -45819,7 +45815,7 @@
         <v>725</v>
       </c>
       <c r="K32" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L32" s="48" t="s">
         <v>724</v>
@@ -45834,7 +45830,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q32" s="227" t="s">
         <v>718</v>
@@ -45875,7 +45871,7 @@
         <v>725</v>
       </c>
       <c r="K33" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L33" s="48" t="s">
         <v>724</v>
@@ -45890,7 +45886,7 @@
         <v>3</v>
       </c>
       <c r="P33" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q33" s="227" t="s">
         <v>718</v>
@@ -45931,7 +45927,7 @@
         <v>725</v>
       </c>
       <c r="K34" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L34" s="48" t="s">
         <v>724</v>
@@ -45946,7 +45942,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q34" s="227" t="s">
         <v>718</v>
@@ -45987,7 +45983,7 @@
         <v>725</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L35" s="48" t="s">
         <v>724</v>
@@ -46002,7 +45998,7 @@
         <v>5</v>
       </c>
       <c r="P35" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q35" s="227" t="s">
         <v>718</v>
@@ -46043,7 +46039,7 @@
         <v>725</v>
       </c>
       <c r="K36" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L36" s="48" t="s">
         <v>724</v>
@@ -46058,7 +46054,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q36" s="227" t="s">
         <v>718</v>
@@ -46099,7 +46095,7 @@
         <v>725</v>
       </c>
       <c r="K37" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L37" s="48" t="s">
         <v>724</v>
@@ -46114,7 +46110,7 @@
         <v>3</v>
       </c>
       <c r="P37" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q37" s="227" t="s">
         <v>718</v>
@@ -46155,7 +46151,7 @@
         <v>725</v>
       </c>
       <c r="K38" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L38" s="48" t="s">
         <v>724</v>
@@ -46170,7 +46166,7 @@
         <v>2</v>
       </c>
       <c r="P38" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q38" s="227" t="s">
         <v>718</v>
@@ -46211,7 +46207,7 @@
         <v>725</v>
       </c>
       <c r="K39" s="48" t="s">
-        <v>1391</v>
+        <v>723</v>
       </c>
       <c r="L39" s="48" t="s">
         <v>724</v>
@@ -46226,7 +46222,7 @@
         <v>4</v>
       </c>
       <c r="P39" s="221" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="Q39" s="227" t="s">
         <v>718</v>
@@ -46450,7 +46446,7 @@
         <v>6</v>
       </c>
       <c r="P43" s="242" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q43" s="244" t="s">
         <v>718</v>
@@ -46506,7 +46502,7 @@
         <v>2</v>
       </c>
       <c r="P44" s="219" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="Q44" s="245" t="s">
         <v>718</v>
@@ -46526,8 +46522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -46654,13 +46650,13 @@
         <v>24</v>
       </c>
       <c r="P2" s="86" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="Q2" s="87" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="87" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -46710,13 +46706,13 @@
         <v>6</v>
       </c>
       <c r="P3" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Q3" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -46766,13 +46762,13 @@
         <v>8</v>
       </c>
       <c r="P4" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Q4" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -46822,13 +46818,13 @@
         <v>9</v>
       </c>
       <c r="P5" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Q5" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -46878,13 +46874,13 @@
         <v>2</v>
       </c>
       <c r="P6" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Q6" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -46934,13 +46930,13 @@
         <v>6</v>
       </c>
       <c r="P7" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Q7" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R7" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -46990,13 +46986,13 @@
         <v>11</v>
       </c>
       <c r="P8" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Q8" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R8" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -47046,13 +47042,13 @@
         <v>10</v>
       </c>
       <c r="P9" s="218" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Q9" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R9" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -47102,7 +47098,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q10" s="220" t="s">
         <v>718</v>
@@ -47158,7 +47154,7 @@
         <v>2</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q11" s="220" t="s">
         <v>718</v>
@@ -47214,7 +47210,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q12" s="220" t="s">
         <v>718</v>
@@ -47270,7 +47266,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q13" s="220" t="s">
         <v>718</v>
@@ -47326,7 +47322,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q14" s="220" t="s">
         <v>718</v>
@@ -47382,7 +47378,7 @@
         <v>3</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q15" s="220" t="s">
         <v>718</v>
@@ -47438,7 +47434,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q16" s="220" t="s">
         <v>718</v>
@@ -47494,7 +47490,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q17" s="220" t="s">
         <v>718</v>
@@ -47550,7 +47546,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q18" s="220" t="s">
         <v>718</v>
@@ -47606,7 +47602,7 @@
         <v>7</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q19" s="220" t="s">
         <v>718</v>
@@ -47662,7 +47658,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q20" s="220" t="s">
         <v>718</v>
@@ -47718,7 +47714,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q21" s="220" t="s">
         <v>718</v>
@@ -47774,7 +47770,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q22" s="220" t="s">
         <v>718</v>
@@ -47830,7 +47826,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q23" s="220" t="s">
         <v>718</v>
@@ -47886,7 +47882,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q24" s="220" t="s">
         <v>718</v>
@@ -47942,7 +47938,7 @@
         <v>2</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q25" s="220" t="s">
         <v>718</v>
@@ -47998,7 +47994,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q26" s="220" t="s">
         <v>718</v>
@@ -48054,7 +48050,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q27" s="220" t="s">
         <v>718</v>
@@ -48110,7 +48106,7 @@
         <v>5</v>
       </c>
       <c r="P28" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q28" s="220" t="s">
         <v>718</v>
@@ -48166,7 +48162,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q29" s="220" t="s">
         <v>718</v>
@@ -48222,7 +48218,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q30" s="220" t="s">
         <v>718</v>
@@ -48278,7 +48274,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="221" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q31" s="220" t="s">
         <v>718</v>
@@ -48337,7 +48333,7 @@
         <v>740</v>
       </c>
       <c r="Q32" s="240" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="R32" s="220" t="s">
         <v>702</v>
@@ -48393,7 +48389,7 @@
         <v>740</v>
       </c>
       <c r="Q33" s="240" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="R33" s="220" t="s">
         <v>702</v>
@@ -48449,7 +48445,7 @@
         <v>740</v>
       </c>
       <c r="Q34" s="240" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="R34" s="220" t="s">
         <v>702</v>
@@ -48502,7 +48498,7 @@
         <v>25</v>
       </c>
       <c r="P35" s="219" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="Q35" s="68" t="s">
         <v>718</v>
@@ -48558,7 +48554,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="219" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="Q36" s="68" t="s">
         <v>718</v>
@@ -48694,7 +48690,7 @@
         <v>741</v>
       </c>
       <c r="L2" s="159" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="M2" s="153">
         <v>2</v>
@@ -48706,13 +48702,13 @@
         <v>224</v>
       </c>
       <c r="P2" s="160" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="Q2" s="274" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="160" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -48762,13 +48758,13 @@
         <v>27</v>
       </c>
       <c r="P3" s="218" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="Q3" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -48818,13 +48814,13 @@
         <v>26</v>
       </c>
       <c r="P4" s="218" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="Q4" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -48874,13 +48870,13 @@
         <v>12</v>
       </c>
       <c r="P5" s="218" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="Q5" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -48930,13 +48926,13 @@
         <v>18</v>
       </c>
       <c r="P6" s="218" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="Q6" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -48944,7 +48940,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C7" s="88" t="s">
         <v>64</v>
@@ -48986,13 +48982,13 @@
         <v>25</v>
       </c>
       <c r="P7" s="218" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="Q7" s="218" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R7" s="218" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -49000,7 +48996,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C8" s="91" t="s">
         <v>64</v>
@@ -49042,10 +49038,10 @@
         <v>2</v>
       </c>
       <c r="P8" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q8" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R8" s="221" t="s">
         <v>745</v>
@@ -49056,7 +49052,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="91" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C9" s="91" t="s">
         <v>64</v>
@@ -49098,10 +49094,10 @@
         <v>1</v>
       </c>
       <c r="P9" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q9" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R9" s="221" t="s">
         <v>745</v>
@@ -49112,7 +49108,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C10" s="91" t="s">
         <v>64</v>
@@ -49154,10 +49150,10 @@
         <v>2</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q10" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R10" s="221" t="s">
         <v>745</v>
@@ -49168,7 +49164,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C11" s="91" t="s">
         <v>64</v>
@@ -49210,10 +49206,10 @@
         <v>5</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q11" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R11" s="221" t="s">
         <v>745</v>
@@ -49224,7 +49220,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C12" s="91" t="s">
         <v>64</v>
@@ -49266,10 +49262,10 @@
         <v>3</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q12" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R12" s="221" t="s">
         <v>745</v>
@@ -49280,7 +49276,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C13" s="91" t="s">
         <v>64</v>
@@ -49322,10 +49318,10 @@
         <v>2</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q13" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R13" s="221" t="s">
         <v>745</v>
@@ -49336,7 +49332,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C14" s="91" t="s">
         <v>64</v>
@@ -49378,10 +49374,10 @@
         <v>2</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q14" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R14" s="221" t="s">
         <v>745</v>
@@ -49392,7 +49388,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C15" s="91" t="s">
         <v>64</v>
@@ -49434,10 +49430,10 @@
         <v>2</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q15" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R15" s="221" t="s">
         <v>745</v>
@@ -49448,7 +49444,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C16" s="91" t="s">
         <v>64</v>
@@ -49490,10 +49486,10 @@
         <v>2</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q16" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R16" s="221" t="s">
         <v>745</v>
@@ -49504,7 +49500,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C17" s="91" t="s">
         <v>64</v>
@@ -49546,10 +49542,10 @@
         <v>1</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q17" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R17" s="221" t="s">
         <v>745</v>
@@ -49560,7 +49556,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C18" s="91" t="s">
         <v>64</v>
@@ -49602,10 +49598,10 @@
         <v>2</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q18" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R18" s="221" t="s">
         <v>745</v>
@@ -49616,7 +49612,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C19" s="91" t="s">
         <v>64</v>
@@ -49658,10 +49654,10 @@
         <v>1</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q19" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R19" s="221" t="s">
         <v>745</v>
@@ -49672,7 +49668,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C20" s="91" t="s">
         <v>64</v>
@@ -49714,10 +49710,10 @@
         <v>2</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="Q20" s="221" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="R20" s="221" t="s">
         <v>745</v>
@@ -49758,7 +49754,7 @@
         <v>733</v>
       </c>
       <c r="L21" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M21" s="166">
         <v>0</v>
@@ -49808,7 +49804,7 @@
         <v>733</v>
       </c>
       <c r="L22" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M22" s="166">
         <v>0</v>
@@ -49854,7 +49850,7 @@
         <v>733</v>
       </c>
       <c r="L23" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M23" s="166">
         <v>0</v>
@@ -49904,7 +49900,7 @@
         <v>733</v>
       </c>
       <c r="L24" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M24" s="166">
         <v>0</v>
@@ -49954,7 +49950,7 @@
         <v>733</v>
       </c>
       <c r="L25" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M25" s="63">
         <v>1</v>
@@ -49966,7 +49962,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="134" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="Q25" s="64" t="s">
         <v>736</v>
@@ -50010,7 +50006,7 @@
         <v>733</v>
       </c>
       <c r="L26" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M26" s="166">
         <v>1</v>
@@ -50030,7 +50026,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="164" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C27" s="164" t="s">
         <v>64</v>
@@ -50060,7 +50056,7 @@
         <v>733</v>
       </c>
       <c r="L27" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M27" s="166">
         <v>0</v>
@@ -50080,7 +50076,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="164" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C28" s="164" t="s">
         <v>64</v>
@@ -50110,7 +50106,7 @@
         <v>733</v>
       </c>
       <c r="L28" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M28" s="166">
         <v>0</v>
@@ -50130,7 +50126,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="164" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C29" s="164" t="s">
         <v>64</v>
@@ -50160,7 +50156,7 @@
         <v>733</v>
       </c>
       <c r="L29" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M29" s="166">
         <v>0</v>
@@ -50180,7 +50176,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="164" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C30" s="164" t="s">
         <v>64</v>
@@ -50210,7 +50206,7 @@
         <v>733</v>
       </c>
       <c r="L30" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M30" s="166">
         <v>0</v>
@@ -50260,7 +50256,7 @@
         <v>733</v>
       </c>
       <c r="L31" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M31" s="166">
         <v>0</v>
@@ -50280,7 +50276,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C32" s="164" t="s">
         <v>64</v>
@@ -50310,7 +50306,7 @@
         <v>733</v>
       </c>
       <c r="L32" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M32" s="166">
         <v>0</v>
@@ -50330,7 +50326,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="164" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C33" s="164" t="s">
         <v>64</v>
@@ -50360,7 +50356,7 @@
         <v>733</v>
       </c>
       <c r="L33" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M33" s="166">
         <v>0</v>
@@ -50380,7 +50376,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="164" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C34" s="164" t="s">
         <v>64</v>
@@ -50410,7 +50406,7 @@
         <v>733</v>
       </c>
       <c r="L34" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M34" s="166">
         <v>0</v>
@@ -50430,7 +50426,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="164" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C35" s="164" t="s">
         <v>64</v>
@@ -50460,7 +50456,7 @@
         <v>733</v>
       </c>
       <c r="L35" s="113" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="M35" s="166">
         <v>0</v>
@@ -50480,7 +50476,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="150" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C36" s="150" t="s">
         <v>64</v>
@@ -50524,7 +50520,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="150" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C37" s="150" t="s">
         <v>64</v>
@@ -50568,7 +50564,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="150" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C38" s="150" t="s">
         <v>64</v>
@@ -50612,7 +50608,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="150" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C39" s="150" t="s">
         <v>64</v>
@@ -50656,7 +50652,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="150" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C40" s="150" t="s">
         <v>64</v>
@@ -50704,7 +50700,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="150" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C41" s="150" t="s">
         <v>64</v>
@@ -50804,7 +50800,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="150" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C43" s="150" t="s">
         <v>64</v>
@@ -50854,7 +50850,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="150" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C44" s="150" t="s">
         <v>64</v>
@@ -50902,7 +50898,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="150" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C45" s="150" t="s">
         <v>64</v>
@@ -50952,7 +50948,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="150" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C46" s="150" t="s">
         <v>64</v>
@@ -51002,7 +50998,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="150" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C47" s="150" t="s">
         <v>64</v>
@@ -51052,7 +51048,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="150" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C48" s="150" t="s">
         <v>64</v>
@@ -51102,7 +51098,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="150" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C49" s="150" t="s">
         <v>64</v>
@@ -51152,7 +51148,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="150" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C50" s="150" t="s">
         <v>64</v>
@@ -51644,7 +51640,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="213" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C59" s="173" t="s">
         <v>64</v>
@@ -52540,7 +52536,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="268" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C75" s="268" t="s">
         <v>12</v>
@@ -52570,7 +52566,7 @@
         <v>742</v>
       </c>
       <c r="L75" s="272" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="M75" s="271">
         <v>0</v>
@@ -52691,13 +52687,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="248" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C2" s="147" t="s">
         <v>577</v>
       </c>
       <c r="D2" s="147" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E2" s="147" t="s">
         <v>578</v>
@@ -52718,7 +52714,7 @@
         <v>725</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="L2" s="28" t="s">
         <v>1354</v>
@@ -52733,13 +52729,13 @@
         <v>36</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -52789,13 +52785,13 @@
         <v>7</v>
       </c>
       <c r="P3" s="249" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Q3" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R3" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -52845,13 +52841,13 @@
         <v>5</v>
       </c>
       <c r="P4" s="249" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Q4" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R4" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -52901,13 +52897,13 @@
         <v>4</v>
       </c>
       <c r="P5" s="249" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Q5" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R5" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -52957,13 +52953,13 @@
         <v>10</v>
       </c>
       <c r="P6" s="249" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Q6" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R6" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -53013,13 +53009,13 @@
         <v>6</v>
       </c>
       <c r="P7" s="249" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Q7" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R7" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -53069,13 +53065,13 @@
         <v>2</v>
       </c>
       <c r="P8" s="249" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="Q8" s="217" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R8" s="217" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -53125,7 +53121,7 @@
         <v>5</v>
       </c>
       <c r="P9" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q9" s="240" t="s">
         <v>746</v>
@@ -53181,7 +53177,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q10" s="240" t="s">
         <v>746</v>
@@ -53237,7 +53233,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q11" s="240" t="s">
         <v>746</v>
@@ -53293,7 +53289,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q12" s="240" t="s">
         <v>746</v>
@@ -53349,7 +53345,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q13" s="240" t="s">
         <v>746</v>
@@ -53405,7 +53401,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q14" s="240" t="s">
         <v>746</v>
@@ -53461,7 +53457,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q15" s="240" t="s">
         <v>746</v>
@@ -53517,7 +53513,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q16" s="240" t="s">
         <v>746</v>
@@ -53573,7 +53569,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q17" s="240" t="s">
         <v>746</v>
@@ -53629,7 +53625,7 @@
         <v>2</v>
       </c>
       <c r="P18" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q18" s="240" t="s">
         <v>746</v>
@@ -53685,7 +53681,7 @@
         <v>3</v>
       </c>
       <c r="P19" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q19" s="240" t="s">
         <v>746</v>
@@ -53741,7 +53737,7 @@
         <v>2</v>
       </c>
       <c r="P20" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q20" s="240" t="s">
         <v>746</v>
@@ -53797,7 +53793,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q21" s="240" t="s">
         <v>746</v>
@@ -53853,7 +53849,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q22" s="240" t="s">
         <v>746</v>
@@ -53909,7 +53905,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q23" s="240" t="s">
         <v>746</v>
@@ -53965,7 +53961,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q24" s="240" t="s">
         <v>746</v>
@@ -54021,7 +54017,7 @@
         <v>3</v>
       </c>
       <c r="P25" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q25" s="240" t="s">
         <v>746</v>
@@ -54077,7 +54073,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q26" s="240" t="s">
         <v>746</v>
@@ -54133,7 +54129,7 @@
         <v>2</v>
       </c>
       <c r="P27" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q27" s="240" t="s">
         <v>746</v>
@@ -54189,7 +54185,7 @@
         <v>3</v>
       </c>
       <c r="P28" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q28" s="240" t="s">
         <v>746</v>
@@ -54245,7 +54241,7 @@
         <v>4</v>
       </c>
       <c r="P29" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q29" s="240" t="s">
         <v>746</v>
@@ -54301,7 +54297,7 @@
         <v>3</v>
       </c>
       <c r="P30" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q30" s="240" t="s">
         <v>746</v>
@@ -54357,7 +54353,7 @@
         <v>4</v>
       </c>
       <c r="P31" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q31" s="240" t="s">
         <v>746</v>
@@ -54413,7 +54409,7 @@
         <v>2</v>
       </c>
       <c r="P32" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q32" s="240" t="s">
         <v>746</v>
@@ -54469,7 +54465,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q33" s="240" t="s">
         <v>746</v>
@@ -54525,7 +54521,7 @@
         <v>2</v>
       </c>
       <c r="P34" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q34" s="240" t="s">
         <v>746</v>
@@ -54581,7 +54577,7 @@
         <v>6</v>
       </c>
       <c r="P35" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q35" s="240" t="s">
         <v>746</v>
@@ -54637,7 +54633,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q36" s="240" t="s">
         <v>746</v>
@@ -54693,7 +54689,7 @@
         <v>3</v>
       </c>
       <c r="P37" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q37" s="240" t="s">
         <v>746</v>
@@ -54749,7 +54745,7 @@
         <v>1</v>
       </c>
       <c r="P38" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q38" s="240" t="s">
         <v>746</v>
@@ -54805,7 +54801,7 @@
         <v>2</v>
       </c>
       <c r="P39" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q39" s="240" t="s">
         <v>746</v>
@@ -54861,7 +54857,7 @@
         <v>3</v>
       </c>
       <c r="P40" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q40" s="240" t="s">
         <v>746</v>
@@ -54917,7 +54913,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q41" s="240" t="s">
         <v>746</v>
@@ -54973,7 +54969,7 @@
         <v>4</v>
       </c>
       <c r="P42" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q42" s="240" t="s">
         <v>746</v>
@@ -55029,7 +55025,7 @@
         <v>5</v>
       </c>
       <c r="P43" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q43" s="240" t="s">
         <v>746</v>
@@ -55085,7 +55081,7 @@
         <v>6</v>
       </c>
       <c r="P44" s="221" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q44" s="240" t="s">
         <v>746</v>
@@ -55141,7 +55137,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="242" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Q45" s="243" t="s">
         <v>718</v>
@@ -55197,7 +55193,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="242" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Q46" s="243" t="s">
         <v>718</v>
@@ -55253,7 +55249,7 @@
         <v>4</v>
       </c>
       <c r="P47" s="242" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Q47" s="243" t="s">
         <v>718</v>
@@ -55309,7 +55305,7 @@
         <v>5</v>
       </c>
       <c r="P48" s="242" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Q48" s="243" t="s">
         <v>718</v>
@@ -55365,7 +55361,7 @@
         <v>4</v>
       </c>
       <c r="P49" s="242" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Q49" s="243" t="s">
         <v>718</v>
@@ -55421,7 +55417,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="219" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Q50" s="68" t="s">
         <v>718</v>
